--- a/capiq_data/in_process_data/IQ250178.xlsx
+++ b/capiq_data/in_process_data/IQ250178.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1ACF52-22F0-4879-9BB2-ED8430E8D202}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D25F9A-9704-4549-BE58-B02589B0893B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"9b53cf07-3ee6-468e-9e40-e3190cd32f48"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"06335302-78ff-4602-9f89-26d2b2475a02"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>437</v>
+        <v>166</v>
       </c>
       <c r="D2">
-        <v>5230</v>
+        <v>2479</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F2">
-        <v>1265</v>
+        <v>476</v>
       </c>
       <c r="G2">
-        <v>4084</v>
+        <v>1289</v>
       </c>
       <c r="H2">
-        <v>101039</v>
+        <v>37231</v>
       </c>
       <c r="I2">
-        <v>3719</v>
+        <v>1745</v>
       </c>
       <c r="J2">
-        <v>3038</v>
+        <v>1048</v>
       </c>
       <c r="K2">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7817</v>
+        <v>3994</v>
       </c>
       <c r="O2">
-        <v>89983</v>
+        <v>32537</v>
       </c>
       <c r="P2">
-        <v>3299</v>
+        <v>1079</v>
       </c>
       <c r="Q2">
-        <v>-313</v>
+        <v>-199</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>8211</v>
+        <v>5278</v>
       </c>
       <c r="T2">
-        <v>11056</v>
+        <v>4694</v>
       </c>
       <c r="U2">
-        <v>2121</v>
+        <v>609</v>
       </c>
       <c r="V2">
-        <v>2120</v>
+        <v>658</v>
       </c>
       <c r="W2">
-        <v>-140</v>
+        <v>-21</v>
       </c>
       <c r="X2">
-        <v>-105</v>
+        <v>194</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="Z2">
-        <v>-2379</v>
+        <v>-737</v>
       </c>
       <c r="AA2">
-        <v>437</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>389</v>
+        <v>178</v>
       </c>
       <c r="D3">
-        <v>5154</v>
+        <v>2401</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="F3">
-        <v>1250</v>
+        <v>485</v>
       </c>
       <c r="G3">
-        <v>4018</v>
+        <v>1715</v>
       </c>
       <c r="H3">
-        <v>101145</v>
+        <v>37641</v>
       </c>
       <c r="I3">
-        <v>3735</v>
+        <v>1704</v>
       </c>
       <c r="J3">
-        <v>2590</v>
+        <v>1035</v>
       </c>
       <c r="K3">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N3">
-        <v>8225</v>
+        <v>4263</v>
       </c>
       <c r="O3">
-        <v>90122</v>
+        <v>32423</v>
       </c>
       <c r="P3">
-        <v>3324</v>
+        <v>1035</v>
       </c>
       <c r="Q3">
-        <v>-33</v>
+        <v>466</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>11023</v>
+        <v>5218</v>
       </c>
       <c r="U3">
-        <v>2088</v>
+        <v>1075</v>
       </c>
       <c r="V3">
-        <v>2167</v>
+        <v>987</v>
       </c>
       <c r="W3">
-        <v>-135</v>
+        <v>-21</v>
       </c>
       <c r="X3">
-        <v>-171</v>
+        <v>-132</v>
       </c>
       <c r="Y3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-2048</v>
+        <v>-414</v>
       </c>
       <c r="AA3">
-        <v>389</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>274</v>
+        <v>154</v>
       </c>
       <c r="D4">
-        <v>5079</v>
+        <v>2348</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>297</v>
       </c>
       <c r="F4">
-        <v>1091</v>
+        <v>462</v>
       </c>
       <c r="G4">
-        <v>3404</v>
+        <v>1422</v>
       </c>
       <c r="H4">
-        <v>106232</v>
+        <v>38793</v>
       </c>
       <c r="I4">
-        <v>3855</v>
+        <v>1771</v>
       </c>
       <c r="J4">
-        <v>2279</v>
+        <v>1356</v>
       </c>
       <c r="K4">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>9032</v>
+        <v>4296</v>
       </c>
       <c r="O4">
-        <v>94251</v>
+        <v>33357</v>
       </c>
       <c r="P4">
-        <v>3391</v>
+        <v>1356</v>
       </c>
       <c r="Q4">
-        <v>-797</v>
+        <v>-339</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>11981</v>
+        <v>5436</v>
       </c>
       <c r="U4">
-        <v>1291</v>
+        <v>736</v>
       </c>
       <c r="V4">
-        <v>2211</v>
+        <v>432</v>
       </c>
       <c r="W4">
-        <v>-125</v>
+        <v>-25</v>
       </c>
       <c r="X4">
-        <v>-4</v>
+        <v>343</v>
       </c>
       <c r="Y4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-3104</v>
+        <v>-1206</v>
       </c>
       <c r="AA4">
-        <v>274</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>736</v>
+        <v>193</v>
       </c>
       <c r="D5">
-        <v>6137</v>
+        <v>2446</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="F5">
-        <v>1918</v>
+        <v>531</v>
       </c>
       <c r="G5">
-        <v>4063</v>
+        <v>1627</v>
       </c>
       <c r="H5">
-        <v>114720</v>
+        <v>40050</v>
       </c>
       <c r="I5">
-        <v>4033</v>
+        <v>1904</v>
       </c>
       <c r="J5">
-        <v>2946</v>
+        <v>1287</v>
       </c>
       <c r="K5">
-        <v>858</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>9612</v>
+        <v>4527</v>
       </c>
       <c r="O5">
-        <v>102006</v>
+        <v>34491</v>
       </c>
       <c r="P5">
-        <v>4199</v>
+        <v>1287</v>
       </c>
       <c r="Q5">
-        <v>571</v>
+        <v>91</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>12714</v>
+        <v>5559</v>
       </c>
       <c r="U5">
-        <v>1862</v>
+        <v>827</v>
       </c>
       <c r="V5">
-        <v>3108</v>
+        <v>758</v>
       </c>
       <c r="W5">
-        <v>-144</v>
+        <v>-25</v>
       </c>
       <c r="X5">
-        <v>160</v>
+        <v>-174</v>
       </c>
       <c r="Y5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-3263</v>
+        <v>-633</v>
       </c>
       <c r="AA5">
-        <v>736</v>
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>538</v>
+        <v>162</v>
       </c>
       <c r="D6">
-        <v>5960</v>
+        <v>2403</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="F6">
-        <v>1564</v>
+        <v>483</v>
       </c>
       <c r="G6">
-        <v>4106</v>
+        <v>1574</v>
       </c>
       <c r="H6">
-        <v>116237</v>
+        <v>37860</v>
       </c>
       <c r="I6">
-        <v>3981</v>
+        <v>1615</v>
       </c>
       <c r="J6">
-        <v>2933</v>
+        <v>1174</v>
       </c>
       <c r="K6">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>9704</v>
+        <v>4091</v>
       </c>
       <c r="O6">
-        <v>103291</v>
+        <v>32435</v>
       </c>
       <c r="P6">
-        <v>4127</v>
+        <v>1207</v>
       </c>
       <c r="Q6">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>5739</v>
       </c>
       <c r="T6">
-        <v>12946</v>
+        <v>5425</v>
       </c>
       <c r="U6">
-        <v>2249</v>
+        <v>852</v>
       </c>
       <c r="V6">
-        <v>3356</v>
+        <v>672</v>
       </c>
       <c r="W6">
-        <v>-148</v>
+        <v>-24</v>
       </c>
       <c r="X6">
-        <v>79</v>
+        <v>-79</v>
       </c>
       <c r="Y6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>-2999</v>
+        <v>-572</v>
       </c>
       <c r="AA6">
-        <v>538</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>785</v>
+        <v>183</v>
       </c>
       <c r="D7">
-        <v>6193</v>
+        <v>2371</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="F7">
-        <v>1825</v>
+        <v>505</v>
       </c>
       <c r="G7">
-        <v>4018</v>
+        <v>1217</v>
       </c>
       <c r="H7">
-        <v>115552</v>
+        <v>37379</v>
       </c>
       <c r="I7">
-        <v>3885</v>
+        <v>1686</v>
       </c>
       <c r="J7">
-        <v>3631</v>
+        <v>1198</v>
       </c>
       <c r="K7">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="N7">
-        <v>9283</v>
+        <v>4199</v>
       </c>
       <c r="O7">
-        <v>101909</v>
+        <v>32082</v>
       </c>
       <c r="P7">
-        <v>4160</v>
+        <v>1198</v>
       </c>
       <c r="Q7">
-        <v>-39</v>
+        <v>-329</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>13643</v>
+        <v>5297</v>
       </c>
       <c r="U7">
-        <v>2210</v>
+        <v>523</v>
       </c>
       <c r="V7">
-        <v>3556</v>
+        <v>874</v>
       </c>
       <c r="W7">
-        <v>-148</v>
+        <v>-24</v>
       </c>
       <c r="X7">
-        <v>901</v>
+        <v>-132</v>
       </c>
       <c r="Y7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-3761</v>
+        <v>-570</v>
       </c>
       <c r="AA7">
-        <v>785</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>483</v>
+        <v>212</v>
       </c>
       <c r="D8">
-        <v>5960</v>
+        <v>2513</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="F8">
-        <v>1496</v>
+        <v>552</v>
       </c>
       <c r="G8">
-        <v>3996</v>
+        <v>1566</v>
       </c>
       <c r="H8">
-        <v>122209</v>
+        <v>41941</v>
       </c>
       <c r="I8">
-        <v>4057</v>
+        <v>1912</v>
       </c>
       <c r="J8">
-        <v>3663</v>
+        <v>1284</v>
       </c>
       <c r="K8">
-        <v>192</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>9426</v>
+        <v>4558</v>
       </c>
       <c r="O8">
-        <v>108030</v>
+        <v>36107</v>
       </c>
       <c r="P8">
-        <v>3868</v>
+        <v>1284</v>
       </c>
       <c r="Q8">
-        <v>-80</v>
+        <v>238</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>14179</v>
+        <v>5834</v>
       </c>
       <c r="U8">
-        <v>2130</v>
+        <v>761</v>
       </c>
       <c r="V8">
-        <v>3689</v>
+        <v>572</v>
       </c>
       <c r="W8">
-        <v>-148</v>
+        <v>-30</v>
       </c>
       <c r="X8">
-        <v>-176</v>
+        <v>-41</v>
       </c>
       <c r="Y8">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-3671</v>
+        <v>-330</v>
       </c>
       <c r="AA8">
-        <v>483</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>1017</v>
+        <v>240</v>
       </c>
       <c r="D9">
-        <v>6777</v>
+        <v>2707</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>401</v>
       </c>
       <c r="F9">
-        <v>2122</v>
+        <v>599</v>
       </c>
       <c r="G9">
-        <v>5167</v>
+        <v>2055</v>
       </c>
       <c r="H9">
-        <v>137840</v>
+        <v>42893</v>
       </c>
       <c r="I9">
-        <v>4267</v>
+        <v>1945</v>
       </c>
       <c r="J9">
-        <v>4391</v>
+        <v>1295</v>
       </c>
       <c r="K9">
-        <v>6591</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16883</v>
+        <v>4704</v>
       </c>
       <c r="O9">
-        <v>121855</v>
+        <v>36789</v>
       </c>
       <c r="P9">
-        <v>10997</v>
+        <v>1295</v>
       </c>
       <c r="Q9">
-        <v>855</v>
+        <v>530</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>15985</v>
+        <v>6104</v>
       </c>
       <c r="U9">
-        <v>2985</v>
+        <v>1291</v>
       </c>
       <c r="V9">
-        <v>4206</v>
+        <v>989</v>
       </c>
       <c r="W9">
-        <v>-149</v>
+        <v>-29</v>
       </c>
       <c r="X9">
-        <v>1056</v>
+        <v>-61</v>
       </c>
       <c r="Y9">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-10674</v>
+        <v>-1189</v>
       </c>
       <c r="AA9">
-        <v>1017</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>581</v>
+        <v>186</v>
       </c>
       <c r="D10">
-        <v>6334</v>
+        <v>2666</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="F10">
-        <v>1631</v>
+        <v>549</v>
       </c>
       <c r="G10">
-        <v>4204</v>
+        <v>2228</v>
       </c>
       <c r="H10">
-        <v>131094</v>
+        <v>45058</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="J10">
-        <v>4343</v>
+        <v>1312</v>
       </c>
       <c r="K10">
-        <v>6277</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>22973</v>
+        <v>4545</v>
       </c>
       <c r="O10">
-        <v>115116</v>
+        <v>38664</v>
       </c>
       <c r="P10">
-        <v>10632</v>
+        <v>1312</v>
       </c>
       <c r="Q10">
-        <v>-944</v>
+        <v>88</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>8965</v>
+        <v>5797</v>
       </c>
       <c r="T10">
-        <v>15978</v>
+        <v>6394</v>
       </c>
       <c r="U10">
-        <v>2041</v>
+        <v>1379</v>
       </c>
       <c r="V10">
-        <v>3501</v>
+        <v>603</v>
       </c>
       <c r="W10">
-        <v>-158</v>
+        <v>-29</v>
       </c>
       <c r="X10">
-        <v>164</v>
+        <v>-86</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-4799</v>
+        <v>-627</v>
       </c>
       <c r="AA10">
-        <v>581</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>892</v>
+        <v>237</v>
       </c>
       <c r="D11">
-        <v>6133</v>
+        <v>2807</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="F11">
-        <v>1937</v>
+        <v>621</v>
       </c>
       <c r="G11">
-        <v>5501</v>
+        <v>1760</v>
       </c>
       <c r="H11">
-        <v>120538</v>
+        <v>45341</v>
       </c>
       <c r="I11">
-        <v>3877</v>
+        <v>1793</v>
       </c>
       <c r="J11">
-        <v>4276</v>
+        <v>1282</v>
       </c>
       <c r="K11">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="N11">
-        <v>20489</v>
+        <v>4972</v>
       </c>
       <c r="O11">
-        <v>105003</v>
+        <v>38329</v>
       </c>
       <c r="P11">
-        <v>4491</v>
+        <v>1311</v>
       </c>
       <c r="Q11">
-        <v>555</v>
+        <v>-394</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>15535</v>
+        <v>7012</v>
       </c>
       <c r="U11">
-        <v>2596</v>
+        <v>985</v>
       </c>
       <c r="V11">
-        <v>3832</v>
+        <v>975</v>
       </c>
       <c r="W11">
-        <v>-159</v>
+        <v>-34</v>
       </c>
       <c r="X11">
-        <v>-156</v>
+        <v>-51</v>
       </c>
       <c r="Y11">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Z11">
-        <v>3845</v>
+        <v>-349</v>
       </c>
       <c r="AA11">
-        <v>892</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>889</v>
+        <v>249</v>
       </c>
       <c r="D12">
-        <v>5942</v>
+        <v>2861</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="F12">
-        <v>1902</v>
+        <v>637</v>
       </c>
       <c r="G12">
-        <v>4717</v>
+        <v>2634</v>
       </c>
       <c r="H12">
-        <v>116313</v>
+        <v>47830</v>
       </c>
       <c r="I12">
-        <v>3760</v>
+        <v>1839</v>
       </c>
       <c r="J12">
-        <v>4939</v>
+        <v>1283</v>
       </c>
       <c r="K12">
-        <v>1506</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20566</v>
+        <v>5043</v>
       </c>
       <c r="O12">
-        <v>102617</v>
+        <v>40263</v>
       </c>
       <c r="P12">
-        <v>6453</v>
+        <v>1312</v>
       </c>
       <c r="Q12">
-        <v>-208</v>
+        <v>750</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>13696</v>
+        <v>7567</v>
       </c>
       <c r="U12">
-        <v>2388</v>
+        <v>1735</v>
       </c>
       <c r="V12">
-        <v>1866</v>
+        <v>614</v>
       </c>
       <c r="W12">
-        <v>-156</v>
+        <v>-34</v>
       </c>
       <c r="X12">
-        <v>682</v>
+        <v>-93</v>
       </c>
       <c r="Y12">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Z12">
-        <v>-3281</v>
+        <v>-945</v>
       </c>
       <c r="AA12">
-        <v>889</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>702</v>
+        <v>237</v>
       </c>
       <c r="D13">
-        <v>5854</v>
+        <v>2931</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>495</v>
       </c>
       <c r="F13">
-        <v>1725</v>
+        <v>659</v>
       </c>
       <c r="G13">
-        <v>5072</v>
+        <v>2074</v>
       </c>
       <c r="H13">
-        <v>119918</v>
+        <v>49236</v>
       </c>
       <c r="I13">
-        <v>3853</v>
+        <v>2008</v>
       </c>
       <c r="J13">
-        <v>4596</v>
+        <v>1348</v>
       </c>
       <c r="K13">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20122</v>
+        <v>4809</v>
       </c>
       <c r="O13">
-        <v>105260</v>
+        <v>42569</v>
       </c>
       <c r="P13">
-        <v>5690</v>
+        <v>1376</v>
       </c>
       <c r="Q13">
-        <v>361</v>
+        <v>-559</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>14658</v>
+        <v>6667</v>
       </c>
       <c r="U13">
-        <v>2749</v>
+        <v>1176</v>
       </c>
       <c r="V13">
-        <v>1461</v>
+        <v>1017</v>
       </c>
       <c r="W13">
-        <v>-157</v>
+        <v>-39</v>
       </c>
       <c r="X13">
-        <v>607</v>
+        <v>-27</v>
       </c>
       <c r="Y13">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Z13">
-        <v>-1503</v>
+        <v>-879</v>
       </c>
       <c r="AA13">
-        <v>702</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>675</v>
+        <v>72</v>
       </c>
       <c r="D14">
-        <v>5690</v>
+        <v>2847</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>547</v>
       </c>
       <c r="F14">
-        <v>1640</v>
+        <v>391</v>
       </c>
       <c r="G14">
-        <v>4994</v>
+        <v>2055</v>
       </c>
       <c r="H14">
-        <v>121307</v>
+        <v>50964</v>
       </c>
       <c r="I14">
-        <v>3763</v>
+        <v>2115</v>
       </c>
       <c r="J14">
-        <v>4567</v>
+        <v>1409</v>
       </c>
       <c r="K14">
-        <v>5820</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>25104</v>
+        <v>4820</v>
       </c>
       <c r="O14">
-        <v>106687</v>
+        <v>44318</v>
       </c>
       <c r="P14">
-        <v>10749</v>
+        <v>1409</v>
       </c>
       <c r="Q14">
-        <v>-206</v>
+        <v>-124</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>9141</v>
+        <v>6473</v>
       </c>
       <c r="T14">
-        <v>14620</v>
+        <v>6646</v>
       </c>
       <c r="U14">
-        <v>2543</v>
+        <v>1052</v>
       </c>
       <c r="V14">
-        <v>3388</v>
+        <v>783</v>
       </c>
       <c r="W14">
-        <v>-163</v>
+        <v>-39</v>
       </c>
       <c r="X14">
-        <v>3</v>
+        <v>-127</v>
       </c>
       <c r="Y14">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-9530</v>
+        <v>-573</v>
       </c>
       <c r="AA14">
-        <v>675</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>732</v>
+        <v>304</v>
       </c>
       <c r="D15">
-        <v>5667</v>
+        <v>3274</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="F15">
-        <v>1787</v>
+        <v>755</v>
       </c>
       <c r="G15">
-        <v>4023</v>
+        <v>2011</v>
       </c>
       <c r="H15">
-        <v>123292</v>
+        <v>53289</v>
       </c>
       <c r="I15">
-        <v>3875</v>
+        <v>2158</v>
       </c>
       <c r="J15">
-        <v>4624</v>
+        <v>1395</v>
       </c>
       <c r="K15">
-        <v>3313</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="N15">
-        <v>22867</v>
+        <v>5147</v>
       </c>
       <c r="O15">
-        <v>107616</v>
+        <v>46296</v>
       </c>
       <c r="P15">
-        <v>8287</v>
+        <v>1423</v>
       </c>
       <c r="Q15">
-        <v>-549</v>
+        <v>117</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>15676</v>
+        <v>6993</v>
       </c>
       <c r="U15">
-        <v>1994</v>
+        <v>1169</v>
       </c>
       <c r="V15">
-        <v>1615</v>
+        <v>1220</v>
       </c>
       <c r="W15">
-        <v>-163</v>
+        <v>-46</v>
       </c>
       <c r="X15">
-        <v>-32</v>
+        <v>-106</v>
       </c>
       <c r="Y15">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="Z15">
-        <v>895</v>
+        <v>-1096</v>
       </c>
       <c r="AA15">
-        <v>732</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>810</v>
+        <v>259</v>
       </c>
       <c r="D16">
-        <v>5816</v>
+        <v>3233</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="F16">
-        <v>1878</v>
+        <v>730</v>
       </c>
       <c r="G16">
-        <v>5203</v>
+        <v>2023</v>
       </c>
       <c r="H16">
-        <v>127871</v>
+        <v>52130</v>
       </c>
       <c r="I16">
-        <v>3941</v>
+        <v>2191</v>
       </c>
       <c r="J16">
-        <v>4581</v>
+        <v>1372</v>
       </c>
       <c r="K16">
-        <v>2972</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>23122</v>
+        <v>4829</v>
       </c>
       <c r="O16">
-        <v>110313</v>
+        <v>45951</v>
       </c>
       <c r="P16">
-        <v>7974</v>
+        <v>1395</v>
       </c>
       <c r="Q16">
+        <v>-97</v>
+      </c>
+      <c r="R16">
+        <v>38168</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>6179</v>
+      </c>
+      <c r="U16">
+        <v>1072</v>
+      </c>
+      <c r="V16">
+        <v>1029</v>
+      </c>
+      <c r="W16">
+        <v>-46</v>
+      </c>
+      <c r="X16">
+        <v>-26</v>
+      </c>
+      <c r="Y16">
+        <v>23</v>
+      </c>
+      <c r="Z16">
+        <v>-1583</v>
+      </c>
+      <c r="AA16">
         <v>258</v>
-      </c>
-      <c r="R16">
-        <v>41820</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>17558</v>
-      </c>
-      <c r="U16">
-        <v>2252</v>
-      </c>
-      <c r="V16">
-        <v>1517</v>
-      </c>
-      <c r="W16">
-        <v>-161</v>
-      </c>
-      <c r="X16">
-        <v>233</v>
-      </c>
-      <c r="Y16">
-        <v>7</v>
-      </c>
-      <c r="Z16">
-        <v>-1069</v>
-      </c>
-      <c r="AA16">
-        <v>810</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>706</v>
+        <v>293</v>
       </c>
       <c r="D17">
-        <v>5701</v>
+        <v>3321</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>415</v>
       </c>
       <c r="F17">
-        <v>1714</v>
+        <v>762</v>
       </c>
       <c r="G17">
-        <v>5455</v>
+        <v>2228</v>
       </c>
       <c r="H17">
-        <v>127253</v>
+        <v>52913</v>
       </c>
       <c r="I17">
-        <v>3829</v>
+        <v>2243</v>
       </c>
       <c r="J17">
-        <v>4115</v>
+        <v>1349</v>
       </c>
       <c r="K17">
-        <v>7025</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>26744</v>
+        <v>5445</v>
       </c>
       <c r="O17">
-        <v>109400</v>
+        <v>45666</v>
       </c>
       <c r="P17">
-        <v>11648</v>
+        <v>1370</v>
       </c>
       <c r="Q17">
-        <v>414</v>
+        <v>316</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>17853</v>
+        <v>7247</v>
       </c>
       <c r="U17">
-        <v>2666</v>
+        <v>1388</v>
       </c>
       <c r="V17">
-        <v>1445</v>
+        <v>1281</v>
       </c>
       <c r="W17">
-        <v>-162</v>
+        <v>-45</v>
       </c>
       <c r="X17">
-        <v>-523</v>
+        <v>-83</v>
       </c>
       <c r="Y17">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="Z17">
-        <v>-5027</v>
+        <v>-114</v>
       </c>
       <c r="AA17">
-        <v>706</v>
+        <v>293</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>703</v>
+        <v>410</v>
       </c>
       <c r="D18">
-        <v>5425</v>
+        <v>3447</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="F18">
-        <v>1749</v>
+        <v>775</v>
       </c>
       <c r="G18">
-        <v>7064</v>
+        <v>4726</v>
       </c>
       <c r="H18">
-        <v>119767</v>
+        <v>59326</v>
       </c>
       <c r="I18">
-        <v>3630</v>
+        <v>2355</v>
       </c>
       <c r="J18">
-        <v>4844</v>
+        <v>1429</v>
       </c>
       <c r="K18">
-        <v>2193</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>22589</v>
+        <v>5393</v>
       </c>
       <c r="O18">
-        <v>101420</v>
+        <v>51750</v>
       </c>
       <c r="P18">
-        <v>7635</v>
+        <v>1429</v>
       </c>
       <c r="Q18">
-        <v>1992</v>
+        <v>2425</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>9525</v>
+        <v>6807</v>
       </c>
       <c r="T18">
-        <v>18347</v>
+        <v>7576</v>
       </c>
       <c r="U18">
-        <v>4658</v>
+        <v>3813</v>
       </c>
       <c r="V18">
-        <v>1973</v>
+        <v>956</v>
       </c>
       <c r="W18">
-        <v>-168</v>
+        <v>-45</v>
       </c>
       <c r="X18">
-        <v>175</v>
+        <v>-98</v>
       </c>
       <c r="Y18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>4783</v>
+        <v>-1110</v>
       </c>
       <c r="AA18">
-        <v>703</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>663</v>
+        <v>328</v>
       </c>
       <c r="D19">
-        <v>5279</v>
+        <v>3559</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="F19">
-        <v>1720</v>
+        <v>823</v>
       </c>
       <c r="G19">
-        <v>7804</v>
+        <v>1874</v>
       </c>
       <c r="H19">
-        <v>121401</v>
+        <v>57041</v>
       </c>
       <c r="I19">
-        <v>3673</v>
+        <v>2427</v>
       </c>
       <c r="J19">
-        <v>5843</v>
+        <v>1119</v>
       </c>
       <c r="K19">
-        <v>2615</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N19">
-        <v>21094</v>
+        <v>5915</v>
       </c>
       <c r="O19">
-        <v>102764</v>
+        <v>49265</v>
       </c>
       <c r="P19">
-        <v>8923</v>
+        <v>1398</v>
       </c>
       <c r="Q19">
-        <v>-295</v>
+        <v>-2821</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>18637</v>
+        <v>7776</v>
       </c>
       <c r="U19">
-        <v>4363</v>
+        <v>992</v>
       </c>
       <c r="V19">
-        <v>1460</v>
+        <v>1174</v>
       </c>
       <c r="W19">
-        <v>-165</v>
+        <v>-53</v>
       </c>
       <c r="X19">
-        <v>322</v>
+        <v>-96</v>
       </c>
       <c r="Y19">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>-658</v>
+        <v>-1499</v>
       </c>
       <c r="AA19">
-        <v>663</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>573</v>
+        <v>336</v>
       </c>
       <c r="D20">
-        <v>5253</v>
+        <v>3567</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>579</v>
       </c>
       <c r="F20">
-        <v>1736</v>
+        <v>870</v>
       </c>
       <c r="G20">
-        <v>6233</v>
+        <v>2504</v>
       </c>
       <c r="H20">
-        <v>115581</v>
+        <v>57995</v>
       </c>
       <c r="I20">
-        <v>3695</v>
+        <v>2482</v>
       </c>
       <c r="J20">
-        <v>4989</v>
+        <v>721</v>
       </c>
       <c r="K20">
-        <v>1023</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18442</v>
+        <v>6742</v>
       </c>
       <c r="O20">
-        <v>98563</v>
+        <v>49536</v>
       </c>
       <c r="P20">
-        <v>6448</v>
+        <v>1369</v>
       </c>
       <c r="Q20">
-        <v>-1260</v>
+        <v>436</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>17018</v>
+        <v>8459</v>
       </c>
       <c r="U20">
-        <v>3103</v>
+        <v>1428</v>
       </c>
       <c r="V20">
-        <v>1643</v>
+        <v>1182</v>
       </c>
       <c r="W20">
-        <v>-163</v>
+        <v>-52</v>
       </c>
       <c r="X20">
-        <v>-1409</v>
+        <v>-58</v>
       </c>
       <c r="Y20">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z20">
-        <v>320</v>
+        <v>-1080</v>
       </c>
       <c r="AA20">
-        <v>573</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>567</v>
+        <v>455</v>
       </c>
       <c r="D21">
-        <v>5042</v>
+        <v>3669</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="F21">
-        <v>1531</v>
+        <v>984</v>
       </c>
       <c r="G21">
-        <v>6695</v>
+        <v>3003</v>
       </c>
       <c r="H21">
-        <v>117455</v>
+        <v>57453</v>
       </c>
       <c r="I21">
-        <v>3809</v>
+        <v>2540</v>
       </c>
       <c r="J21">
-        <v>4794</v>
+        <v>1068</v>
       </c>
       <c r="K21">
-        <v>907</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17894</v>
+        <v>6423</v>
       </c>
       <c r="O21">
-        <v>100200</v>
+        <v>49447</v>
       </c>
       <c r="P21">
-        <v>5916</v>
+        <v>1700</v>
       </c>
       <c r="Q21">
-        <v>417</v>
+        <v>434</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>17255</v>
+        <v>8006</v>
       </c>
       <c r="U21">
-        <v>3520</v>
+        <v>1862</v>
       </c>
       <c r="V21">
-        <v>1667</v>
+        <v>1108</v>
       </c>
       <c r="W21">
-        <v>-161</v>
+        <v>-53</v>
       </c>
       <c r="X21">
-        <v>-739</v>
+        <v>300</v>
       </c>
       <c r="Y21">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Z21">
-        <v>-68</v>
+        <v>-355</v>
       </c>
       <c r="AA21">
-        <v>567</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>730</v>
+        <v>364</v>
       </c>
       <c r="D22">
-        <v>5312</v>
+        <v>3567</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="F22">
-        <v>1784</v>
+        <v>951</v>
       </c>
       <c r="G22">
-        <v>7304</v>
+        <v>2365</v>
       </c>
       <c r="H22">
-        <v>118256</v>
+        <v>56361</v>
       </c>
       <c r="I22">
-        <v>3802</v>
+        <v>2504</v>
       </c>
       <c r="J22">
-        <v>4754</v>
+        <v>1395</v>
       </c>
       <c r="K22">
-        <v>941</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17508</v>
+        <v>5675</v>
       </c>
       <c r="O22">
-        <v>100548</v>
+        <v>48434</v>
       </c>
       <c r="P22">
-        <v>5912</v>
+        <v>1395</v>
       </c>
       <c r="Q22">
-        <v>830</v>
+        <v>-565</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>9915</v>
+        <v>7263</v>
       </c>
       <c r="T22">
-        <v>17708</v>
+        <v>7927</v>
       </c>
       <c r="U22">
-        <v>4350</v>
+        <v>1297</v>
       </c>
       <c r="V22">
-        <v>2006</v>
+        <v>969</v>
       </c>
       <c r="W22">
-        <v>-167</v>
+        <v>-51</v>
       </c>
       <c r="X22">
-        <v>-361</v>
+        <v>-342</v>
       </c>
       <c r="Y22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>-855</v>
+        <v>-1505</v>
       </c>
       <c r="AA22">
-        <v>730</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>731</v>
+        <v>375</v>
       </c>
       <c r="D23">
-        <v>5494</v>
+        <v>3559</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="F23">
-        <v>1844</v>
+        <v>913</v>
       </c>
       <c r="G23">
-        <v>6935</v>
+        <v>2017</v>
       </c>
       <c r="H23">
-        <v>127766</v>
+        <v>56136</v>
       </c>
       <c r="I23">
-        <v>3990</v>
+        <v>2555</v>
       </c>
       <c r="J23">
-        <v>4104</v>
+        <v>1046</v>
       </c>
       <c r="K23">
-        <v>830</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N23">
-        <v>19405</v>
+        <v>5642</v>
       </c>
       <c r="O23">
-        <v>107745</v>
+        <v>48560</v>
       </c>
       <c r="P23">
-        <v>5814</v>
+        <v>1400</v>
       </c>
       <c r="Q23">
-        <v>-901</v>
+        <v>-142</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>20021</v>
+        <v>7576</v>
       </c>
       <c r="U23">
-        <v>3449</v>
+        <v>1155</v>
       </c>
       <c r="V23">
-        <v>1331</v>
+        <v>1023</v>
       </c>
       <c r="W23">
-        <v>-167</v>
+        <v>-62</v>
       </c>
       <c r="X23">
-        <v>-766</v>
+        <v>-80</v>
       </c>
       <c r="Y23">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Z23">
-        <v>-1412</v>
+        <v>-925</v>
       </c>
       <c r="AA23">
-        <v>731</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>548</v>
+        <v>408</v>
       </c>
       <c r="D24">
-        <v>5482</v>
+        <v>3697</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="F24">
-        <v>1599</v>
+        <v>983</v>
       </c>
       <c r="G24">
-        <v>8186</v>
+        <v>1949</v>
       </c>
       <c r="H24">
-        <v>141287</v>
+        <v>57432</v>
       </c>
       <c r="I24">
-        <v>4261</v>
+        <v>2639</v>
       </c>
       <c r="J24">
-        <v>4105</v>
+        <v>1071</v>
       </c>
       <c r="K24">
-        <v>826</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>21951</v>
+        <v>5194</v>
       </c>
       <c r="O24">
-        <v>118737</v>
+        <v>50263</v>
       </c>
       <c r="P24">
-        <v>5835</v>
+        <v>1071</v>
       </c>
       <c r="Q24">
-        <v>251</v>
+        <v>-231</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>22550</v>
+        <v>7169</v>
       </c>
       <c r="U24">
-        <v>3700</v>
+        <v>924</v>
       </c>
       <c r="V24">
-        <v>1523</v>
+        <v>1156</v>
       </c>
       <c r="W24">
-        <v>-163</v>
+        <v>-61</v>
       </c>
       <c r="X24">
-        <v>-515</v>
+        <v>-446</v>
       </c>
       <c r="Y24">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-1123</v>
+        <v>-1435</v>
       </c>
       <c r="AA24">
-        <v>548</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>629</v>
+        <v>367</v>
       </c>
       <c r="D25">
-        <v>5736</v>
+        <v>3672</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>522</v>
       </c>
       <c r="F25">
-        <v>1723</v>
+        <v>919</v>
       </c>
       <c r="G25">
-        <v>9381</v>
+        <v>2406</v>
       </c>
       <c r="H25">
-        <v>144101</v>
+        <v>58353</v>
       </c>
       <c r="I25">
-        <v>4346</v>
+        <v>2660</v>
       </c>
       <c r="J25">
-        <v>5093</v>
+        <v>1171</v>
       </c>
       <c r="K25">
-        <v>1053</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>21298</v>
+        <v>5813</v>
       </c>
       <c r="O25">
-        <v>121316</v>
+        <v>50326</v>
       </c>
       <c r="P25">
-        <v>6818</v>
+        <v>1439</v>
       </c>
       <c r="Q25">
-        <v>1570</v>
+        <v>454</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>22785</v>
+        <v>8027</v>
       </c>
       <c r="U25">
-        <v>5270</v>
+        <v>1378</v>
       </c>
       <c r="V25">
-        <v>1266</v>
+        <v>1065</v>
       </c>
       <c r="W25">
-        <v>-162</v>
+        <v>-60</v>
       </c>
       <c r="X25">
-        <v>446</v>
+        <v>243</v>
       </c>
       <c r="Y25">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="Z25">
-        <v>-900</v>
+        <v>-323</v>
       </c>
       <c r="AA25">
-        <v>629</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>751</v>
+        <v>333</v>
       </c>
       <c r="D26">
-        <v>5918</v>
+        <v>3687</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="F26">
-        <v>2036</v>
+        <v>909</v>
       </c>
       <c r="G26">
-        <v>8438</v>
+        <v>2276</v>
       </c>
       <c r="H26">
-        <v>129819</v>
+        <v>59805</v>
       </c>
       <c r="I26">
-        <v>4045</v>
+        <v>2390</v>
       </c>
       <c r="J26">
-        <v>4690</v>
+        <v>1416</v>
       </c>
       <c r="K26">
-        <v>526</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>19521</v>
+        <v>3214</v>
       </c>
       <c r="O26">
-        <v>109337</v>
+        <v>51464</v>
       </c>
       <c r="P26">
-        <v>5886</v>
+        <v>1426</v>
       </c>
       <c r="Q26">
-        <v>-411</v>
+        <v>-175</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>10212</v>
+        <v>7704</v>
       </c>
       <c r="T26">
-        <v>20482</v>
+        <v>8341</v>
       </c>
       <c r="U26">
-        <v>4859</v>
+        <v>1203</v>
       </c>
       <c r="V26">
-        <v>1867</v>
+        <v>1153</v>
       </c>
       <c r="W26">
-        <v>-166</v>
+        <v>-75</v>
       </c>
       <c r="X26">
-        <v>-784</v>
+        <v>-151</v>
       </c>
       <c r="Y26">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="Z26">
-        <v>-1180</v>
+        <v>-1541</v>
       </c>
       <c r="AA26">
-        <v>751</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>592</v>
+        <v>416</v>
       </c>
       <c r="D27">
-        <v>5309</v>
+        <v>3751</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="F27">
-        <v>1635</v>
+        <v>1010</v>
       </c>
       <c r="G27">
-        <v>7167</v>
+        <v>1844</v>
       </c>
       <c r="H27">
-        <v>133650</v>
+        <v>61192</v>
       </c>
       <c r="I27">
-        <v>4230</v>
+        <v>2443</v>
       </c>
       <c r="J27">
-        <v>5230</v>
+        <v>1170</v>
       </c>
       <c r="K27">
-        <v>1482</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-654</v>
+        <v>-1</v>
       </c>
       <c r="N27">
-        <v>19262</v>
+        <v>5827</v>
       </c>
       <c r="O27">
-        <v>113310</v>
+        <v>52703</v>
       </c>
       <c r="P27">
-        <v>6732</v>
+        <v>1434</v>
       </c>
       <c r="Q27">
-        <v>-654</v>
+        <v>-369</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>20340</v>
+        <v>8489</v>
       </c>
       <c r="U27">
-        <v>4205</v>
+        <v>834</v>
       </c>
       <c r="V27">
-        <v>1757</v>
+        <v>1176</v>
       </c>
       <c r="W27">
-        <v>-166</v>
+        <v>-86</v>
       </c>
       <c r="X27">
-        <v>-876</v>
+        <v>-259</v>
       </c>
       <c r="Y27">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z27">
-        <v>-2025</v>
+        <v>-1453</v>
       </c>
       <c r="AA27">
-        <v>592</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>713</v>
+        <v>415</v>
       </c>
       <c r="D28">
-        <v>5428</v>
+        <v>3764</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="F28">
-        <v>1771</v>
+        <v>1017</v>
       </c>
       <c r="G28">
-        <v>7482</v>
+        <v>2488</v>
       </c>
       <c r="H28">
-        <v>135394</v>
+        <v>60114</v>
       </c>
       <c r="I28">
-        <v>4281</v>
+        <v>2404</v>
       </c>
       <c r="J28">
-        <v>5234</v>
+        <v>1383</v>
       </c>
       <c r="K28">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>18669</v>
+        <v>5395</v>
       </c>
       <c r="O28">
-        <v>113891</v>
+        <v>51924</v>
       </c>
       <c r="P28">
-        <v>5915</v>
+        <v>1392</v>
       </c>
       <c r="Q28">
-        <v>59</v>
+        <v>572</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>21503</v>
+        <v>8190</v>
       </c>
       <c r="U28">
-        <v>4264</v>
+        <v>1406</v>
       </c>
       <c r="V28">
-        <v>1408</v>
+        <v>1153</v>
       </c>
       <c r="W28">
-        <v>-162</v>
+        <v>-96</v>
       </c>
       <c r="X28">
-        <v>-355</v>
+        <v>-116</v>
       </c>
       <c r="Y28">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Z28">
-        <v>115</v>
+        <v>-572</v>
       </c>
       <c r="AA28">
-        <v>713</v>
+        <v>415</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>716</v>
+        <v>420</v>
       </c>
       <c r="D29">
-        <v>5506</v>
+        <v>3861</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="F29">
-        <v>1820</v>
+        <v>1048</v>
       </c>
       <c r="G29">
-        <v>8036</v>
+        <v>2565</v>
       </c>
       <c r="H29">
-        <v>136083</v>
+        <v>63576</v>
       </c>
       <c r="I29">
-        <v>4368</v>
+        <v>2497</v>
       </c>
       <c r="J29">
-        <v>5230</v>
+        <v>1446</v>
       </c>
       <c r="K29">
-        <v>522</v>
+        <v>0</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>18321</v>
+        <v>5439</v>
       </c>
       <c r="O29">
-        <v>114106</v>
+        <v>55125</v>
       </c>
       <c r="P29">
-        <v>5770</v>
+        <v>1454</v>
       </c>
       <c r="Q29">
-        <v>663</v>
+        <v>-78</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>21977</v>
+        <v>8451</v>
       </c>
       <c r="U29">
-        <v>4927</v>
+        <v>1328</v>
       </c>
       <c r="V29">
-        <v>1431</v>
+        <v>1013</v>
       </c>
       <c r="W29">
-        <v>-163</v>
+        <v>-95</v>
       </c>
       <c r="X29">
-        <v>-382</v>
+        <v>-135</v>
       </c>
       <c r="Y29">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Z29">
-        <v>376</v>
+        <v>-491</v>
       </c>
       <c r="AA29">
-        <v>716</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>2583</v>
+        <v>383</v>
       </c>
       <c r="D30">
-        <v>5424</v>
+        <v>4017</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>732</v>
       </c>
       <c r="F30">
-        <v>1813</v>
+        <v>1062</v>
       </c>
       <c r="G30">
-        <v>6383</v>
+        <v>2856</v>
       </c>
       <c r="H30">
-        <v>137217</v>
+        <v>65805</v>
       </c>
       <c r="I30">
-        <v>4392</v>
+        <v>2455</v>
       </c>
       <c r="J30">
-        <v>5289</v>
+        <v>1457</v>
       </c>
       <c r="K30">
-        <v>606</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>16176</v>
+        <v>5679</v>
       </c>
       <c r="O30">
-        <v>112619</v>
+        <v>57010</v>
       </c>
       <c r="P30">
-        <v>5895</v>
+        <v>1465</v>
       </c>
       <c r="Q30">
-        <v>-1436</v>
+        <v>235</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>11318</v>
+        <v>8358</v>
       </c>
       <c r="T30">
-        <v>24598</v>
+        <v>8795</v>
       </c>
       <c r="U30">
-        <v>3491</v>
+        <v>1563</v>
       </c>
       <c r="V30">
-        <v>1532</v>
+        <v>1314</v>
       </c>
       <c r="W30">
-        <v>-170</v>
+        <v>-96</v>
       </c>
       <c r="X30">
-        <v>-452</v>
+        <v>-145</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Z30">
-        <v>-1191</v>
+        <v>-1060</v>
       </c>
       <c r="AA30">
-        <v>2583</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>717</v>
+        <v>474</v>
       </c>
       <c r="D31">
-        <v>5464</v>
+        <v>4267</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="F31">
-        <v>1771</v>
+        <v>1179</v>
       </c>
       <c r="G31">
-        <v>7497</v>
+        <v>2142</v>
       </c>
       <c r="H31">
-        <v>147356</v>
+        <v>72269</v>
       </c>
       <c r="I31">
-        <v>4630</v>
+        <v>2694</v>
       </c>
       <c r="J31">
-        <v>5352</v>
+        <v>1598</v>
       </c>
       <c r="K31">
-        <v>5368</v>
+        <v>0</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N31">
-        <v>20842</v>
+        <v>5572</v>
       </c>
       <c r="O31">
-        <v>123069</v>
+        <v>64135</v>
       </c>
       <c r="P31">
-        <v>10740</v>
+        <v>1606</v>
       </c>
       <c r="Q31">
-        <v>589</v>
+        <v>-655</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>24287</v>
+        <v>8134</v>
       </c>
       <c r="U31">
-        <v>4080</v>
+        <v>908</v>
       </c>
       <c r="V31">
-        <v>1238</v>
+        <v>1196</v>
       </c>
       <c r="W31">
-        <v>-195</v>
+        <v>-109</v>
       </c>
       <c r="X31">
-        <v>-473</v>
+        <v>-789</v>
       </c>
       <c r="Y31">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Z31">
-        <v>-3116</v>
+        <v>-1183</v>
       </c>
       <c r="AA31">
-        <v>717</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>833</v>
+        <v>483</v>
       </c>
       <c r="D32">
-        <v>5589</v>
+        <v>4336</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="F32">
-        <v>1917</v>
+        <v>1215</v>
       </c>
       <c r="G32">
-        <v>6901</v>
+        <v>2996</v>
       </c>
       <c r="H32">
-        <v>141986</v>
+        <v>70552</v>
       </c>
       <c r="I32">
-        <v>4524</v>
+        <v>2643</v>
       </c>
       <c r="J32">
-        <v>5299</v>
+        <v>1531</v>
       </c>
       <c r="K32">
-        <v>3712</v>
+        <v>0</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>18272</v>
+        <v>5441</v>
       </c>
       <c r="O32">
-        <v>118186</v>
+        <v>62653</v>
       </c>
       <c r="P32">
-        <v>9027</v>
+        <v>1539</v>
       </c>
       <c r="Q32">
-        <v>-233</v>
+        <v>479</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>23800</v>
+        <v>7899</v>
       </c>
       <c r="U32">
-        <v>3847</v>
+        <v>1387</v>
       </c>
       <c r="V32">
-        <v>1569</v>
+        <v>1258</v>
       </c>
       <c r="W32">
-        <v>-201</v>
+        <v>-109</v>
       </c>
       <c r="X32">
-        <v>-515</v>
+        <v>-52</v>
       </c>
       <c r="Y32">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z32">
-        <v>873</v>
+        <v>-1301</v>
       </c>
       <c r="AA32">
-        <v>832</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>845</v>
+        <v>100</v>
       </c>
       <c r="D33">
-        <v>5577</v>
+        <v>3691</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>823</v>
       </c>
       <c r="F33">
-        <v>1929</v>
+        <v>604</v>
       </c>
       <c r="G33">
-        <v>6297</v>
+        <v>1924</v>
       </c>
       <c r="H33">
-        <v>137941</v>
+        <v>70457</v>
       </c>
       <c r="I33">
-        <v>4530</v>
+        <v>2800</v>
       </c>
       <c r="J33">
-        <v>5264</v>
+        <v>1561</v>
       </c>
       <c r="K33">
-        <v>1970</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>16108</v>
+        <v>5021</v>
       </c>
       <c r="O33">
-        <v>114707</v>
+        <v>63957</v>
       </c>
       <c r="P33">
-        <v>7250</v>
+        <v>1568</v>
       </c>
       <c r="Q33">
-        <v>-418</v>
+        <v>-873</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>23234</v>
+        <v>6500</v>
       </c>
       <c r="U33">
-        <v>3429</v>
+        <v>514</v>
       </c>
       <c r="V33">
-        <v>1852</v>
+        <v>1194</v>
       </c>
       <c r="W33">
-        <v>-199</v>
+        <v>-109</v>
       </c>
       <c r="X33">
-        <v>-525</v>
+        <v>-651</v>
       </c>
       <c r="Y33">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Z33">
-        <v>1164</v>
+        <v>-1156</v>
       </c>
       <c r="AA33">
-        <v>845</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>525</v>
+        <v>197</v>
       </c>
       <c r="D34">
-        <v>5126</v>
+        <v>4260</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1575</v>
+        <v>822</v>
       </c>
       <c r="G34">
-        <v>7471</v>
+        <v>2511</v>
       </c>
       <c r="H34">
-        <v>140406</v>
+        <v>79331</v>
       </c>
       <c r="I34">
-        <v>4584</v>
+        <v>3118</v>
       </c>
       <c r="J34">
-        <v>5765</v>
+        <v>1263</v>
       </c>
       <c r="K34">
-        <v>1052</v>
+        <v>1733</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>15133</v>
+        <v>7376</v>
       </c>
       <c r="O34">
-        <v>116944</v>
+        <v>72692</v>
       </c>
       <c r="P34">
-        <v>6831</v>
+        <v>3454</v>
       </c>
       <c r="Q34">
-        <v>908</v>
+        <v>427</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>11390</v>
+        <v>8242</v>
       </c>
       <c r="T34">
-        <v>23462</v>
+        <v>6639</v>
       </c>
       <c r="U34">
-        <v>4337</v>
+        <v>941</v>
       </c>
       <c r="V34">
-        <v>1355</v>
+        <v>1317</v>
       </c>
       <c r="W34">
-        <v>-198</v>
+        <v>-107</v>
       </c>
       <c r="X34">
-        <v>-103</v>
+        <v>109</v>
       </c>
       <c r="Y34">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Z34">
-        <v>1126</v>
+        <v>-1251</v>
       </c>
       <c r="AA34">
-        <v>525</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>928</v>
+        <v>569</v>
       </c>
       <c r="D35">
-        <v>5657</v>
+        <v>4801</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="F35">
-        <v>2019</v>
+        <v>1351</v>
       </c>
       <c r="G35">
-        <v>7366</v>
+        <v>2462</v>
       </c>
       <c r="H35">
-        <v>145679</v>
+        <v>71815</v>
       </c>
       <c r="I35">
-        <v>4625</v>
+        <v>3013</v>
       </c>
       <c r="J35">
-        <v>5766</v>
+        <v>1116</v>
       </c>
       <c r="K35">
-        <v>1969</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35">
-        <v>17000</v>
+        <v>4655</v>
       </c>
       <c r="O35">
-        <v>119630</v>
+        <v>66616</v>
       </c>
       <c r="P35">
-        <v>7870</v>
+        <v>1573</v>
       </c>
       <c r="Q35">
-        <v>-445</v>
+        <v>255</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>26049</v>
+        <v>5199</v>
       </c>
       <c r="U35">
-        <v>3892</v>
+        <v>1196</v>
       </c>
       <c r="V35">
-        <v>1544</v>
+        <v>1649</v>
       </c>
       <c r="W35">
-        <v>-195</v>
+        <v>-131</v>
       </c>
       <c r="X35">
-        <v>-686</v>
+        <v>-45</v>
       </c>
       <c r="Y35">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="Z35">
-        <v>-2073</v>
+        <v>318</v>
       </c>
       <c r="AA35">
-        <v>928</v>
+        <v>568</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>817</v>
+        <v>313</v>
       </c>
       <c r="D36">
-        <v>5511</v>
+        <v>4313</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>840</v>
       </c>
       <c r="F36">
-        <v>1909</v>
+        <v>984</v>
       </c>
       <c r="G36">
-        <v>6877</v>
+        <v>3156</v>
       </c>
       <c r="H36">
-        <v>151400</v>
+        <v>76041</v>
       </c>
       <c r="I36">
-        <v>4706</v>
+        <v>3128</v>
       </c>
       <c r="J36">
-        <v>6098</v>
+        <v>1985</v>
       </c>
       <c r="K36">
-        <v>1557</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>16619</v>
+        <v>5448</v>
       </c>
       <c r="O36">
-        <v>123159</v>
+        <v>69691</v>
       </c>
       <c r="P36">
-        <v>7791</v>
+        <v>1992</v>
       </c>
       <c r="Q36">
-        <v>-873</v>
+        <v>493</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>28241</v>
+        <v>6350</v>
       </c>
       <c r="U36">
-        <v>3019</v>
+        <v>1689</v>
       </c>
       <c r="V36">
-        <v>813</v>
+        <v>1225</v>
       </c>
       <c r="W36">
-        <v>-194</v>
+        <v>-131</v>
       </c>
       <c r="X36">
-        <v>-292</v>
+        <v>248</v>
       </c>
       <c r="Y36">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="Z36">
-        <v>-614</v>
+        <v>-1516</v>
       </c>
       <c r="AA36">
-        <v>817</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>778</v>
+        <v>363</v>
       </c>
       <c r="D37">
-        <v>5536</v>
+        <v>4526</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>849</v>
       </c>
       <c r="F37">
-        <v>1862</v>
+        <v>1105</v>
       </c>
       <c r="G37">
-        <v>7981</v>
+        <v>3286</v>
       </c>
       <c r="H37">
-        <v>154137</v>
+        <v>82616</v>
       </c>
       <c r="I37">
-        <v>4741</v>
+        <v>3315</v>
       </c>
       <c r="J37">
-        <v>6095</v>
+        <v>1788</v>
       </c>
       <c r="K37">
-        <v>2189</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>17618</v>
+        <v>6148</v>
       </c>
       <c r="O37">
-        <v>124699</v>
+        <v>74734</v>
       </c>
       <c r="P37">
-        <v>8422</v>
+        <v>2231</v>
       </c>
       <c r="Q37">
-        <v>1197</v>
+        <v>115</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>29438</v>
+        <v>7882</v>
       </c>
       <c r="U37">
-        <v>4216</v>
+        <v>1804</v>
       </c>
       <c r="V37">
-        <v>1906</v>
+        <v>1529</v>
       </c>
       <c r="W37">
-        <v>-190</v>
+        <v>-131</v>
       </c>
       <c r="X37">
-        <v>-451</v>
+        <v>143</v>
       </c>
       <c r="Y37">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="Z37">
-        <v>-90</v>
+        <v>-1085</v>
       </c>
       <c r="AA37">
-        <v>777</v>
+        <v>363</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>781</v>
+        <v>252</v>
       </c>
       <c r="D38">
-        <v>5603</v>
+        <v>4597</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1973</v>
+        <v>980</v>
       </c>
       <c r="G38">
-        <v>8576</v>
+        <v>3736</v>
       </c>
       <c r="H38">
-        <v>152768</v>
+        <v>84106</v>
       </c>
       <c r="I38">
-        <v>4659</v>
+        <v>3270</v>
       </c>
       <c r="J38">
-        <v>6060</v>
+        <v>2165</v>
       </c>
       <c r="K38">
-        <v>1876</v>
+        <v>483</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>17082</v>
+        <v>6763</v>
       </c>
       <c r="O38">
-        <v>123809</v>
+        <v>75689</v>
       </c>
       <c r="P38">
-        <v>8445</v>
+        <v>3085</v>
       </c>
       <c r="Q38">
-        <v>680</v>
+        <v>519</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>11729</v>
+        <v>8349</v>
       </c>
       <c r="T38">
-        <v>28959</v>
+        <v>8417</v>
       </c>
       <c r="U38">
-        <v>4896</v>
+        <v>2323</v>
       </c>
       <c r="V38">
-        <v>1192</v>
+        <v>1758</v>
       </c>
       <c r="W38">
-        <v>-192</v>
+        <v>-131</v>
       </c>
       <c r="X38">
-        <v>-284</v>
+        <v>353</v>
       </c>
       <c r="Y38">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="Z38">
-        <v>1399</v>
+        <v>-1824</v>
       </c>
       <c r="AA38">
-        <v>781</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="D39">
-        <v>5162</v>
+        <v>5063</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="F39">
-        <v>1554</v>
+        <v>1524</v>
       </c>
       <c r="G39">
-        <v>8035</v>
+        <v>3228</v>
       </c>
       <c r="H39">
-        <v>151616</v>
+        <v>85178</v>
       </c>
       <c r="I39">
-        <v>4693</v>
+        <v>3298</v>
       </c>
       <c r="J39">
-        <v>6597</v>
+        <v>2155</v>
       </c>
       <c r="K39">
-        <v>2969</v>
+        <v>486</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-350</v>
+        <v>-1</v>
       </c>
       <c r="N39">
-        <v>17039</v>
+        <v>7294</v>
       </c>
       <c r="O39">
-        <v>125214</v>
+        <v>76191</v>
       </c>
       <c r="P39">
-        <v>9727</v>
+        <v>3101</v>
       </c>
       <c r="Q39">
-        <v>-748</v>
+        <v>-712</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>26402</v>
+        <v>8987</v>
       </c>
       <c r="U39">
-        <v>4148</v>
+        <v>1611</v>
       </c>
       <c r="V39">
-        <v>1414</v>
+        <v>1278</v>
       </c>
       <c r="W39">
-        <v>-195</v>
+        <v>-131</v>
       </c>
       <c r="X39">
-        <v>-446</v>
+        <v>-23</v>
       </c>
       <c r="Y39">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="Z39">
-        <v>-1455</v>
+        <v>-1978</v>
       </c>
       <c r="AA39">
-        <v>566</v>
+        <v>636</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>804</v>
+        <v>581</v>
       </c>
       <c r="D40">
-        <v>5407</v>
+        <v>5025</v>
       </c>
       <c r="E40">
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1889</v>
+        <v>1513</v>
       </c>
       <c r="G40">
-        <v>9432</v>
+        <v>3891</v>
       </c>
       <c r="H40">
-        <v>157087</v>
+        <v>91239</v>
       </c>
       <c r="I40">
-        <v>4773</v>
+        <v>3437</v>
       </c>
       <c r="J40">
-        <v>7618</v>
+        <v>2202</v>
       </c>
       <c r="K40">
-        <v>2275</v>
+        <v>636</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>16810</v>
+        <v>7531</v>
       </c>
       <c r="O40">
-        <v>127667</v>
+        <v>81209</v>
       </c>
       <c r="P40">
-        <v>10046</v>
+        <v>3336</v>
       </c>
       <c r="Q40">
-        <v>1380</v>
+        <v>573</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>29420</v>
+        <v>10030</v>
       </c>
       <c r="U40">
-        <v>5528</v>
+        <v>2184</v>
       </c>
       <c r="V40">
-        <v>1187</v>
+        <v>1745</v>
       </c>
       <c r="W40">
-        <v>-193</v>
+        <v>-131</v>
       </c>
       <c r="X40">
-        <v>598</v>
+        <v>16</v>
       </c>
       <c r="Y40">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="Z40">
-        <v>397</v>
+        <v>-1321</v>
       </c>
       <c r="AA40">
-        <v>805</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>2456</v>
+        <v>690</v>
       </c>
       <c r="D41">
-        <v>5665</v>
+        <v>5414</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>2063</v>
+        <v>1657</v>
       </c>
       <c r="G41">
-        <v>9386</v>
+        <v>4166</v>
       </c>
       <c r="H41">
-        <v>160955</v>
+        <v>97843</v>
       </c>
       <c r="I41">
-        <v>4976</v>
+        <v>3662</v>
       </c>
       <c r="J41">
-        <v>7675</v>
+        <v>2584</v>
       </c>
       <c r="K41">
-        <v>1495</v>
+        <v>147</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>15103</v>
+        <v>8174</v>
       </c>
       <c r="O41">
-        <v>128476</v>
+        <v>86710</v>
       </c>
       <c r="P41">
-        <v>9320</v>
+        <v>3219</v>
       </c>
       <c r="Q41">
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>32479</v>
+        <v>11133</v>
       </c>
       <c r="U41">
-        <v>5563</v>
+        <v>2434</v>
       </c>
       <c r="V41">
-        <v>2000</v>
+        <v>1846</v>
       </c>
       <c r="W41">
-        <v>-192</v>
+        <v>-133</v>
       </c>
       <c r="X41">
-        <v>-583</v>
+        <v>273</v>
       </c>
       <c r="Y41">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="Z41">
-        <v>-424</v>
+        <v>-1414</v>
       </c>
       <c r="AA41">
-        <v>2456</v>
+        <v>690</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>437</v>
+      </c>
+      <c r="D42">
+        <v>5230</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1265</v>
+      </c>
+      <c r="G42">
+        <v>4084</v>
+      </c>
+      <c r="H42">
+        <v>101039</v>
+      </c>
+      <c r="I42">
+        <v>3719</v>
+      </c>
+      <c r="J42">
+        <v>3038</v>
+      </c>
+      <c r="K42">
+        <v>191</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>7817</v>
+      </c>
+      <c r="O42">
+        <v>89983</v>
+      </c>
+      <c r="P42">
+        <v>3299</v>
+      </c>
+      <c r="Q42">
+        <v>-313</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>8211</v>
+      </c>
+      <c r="T42">
+        <v>11056</v>
+      </c>
+      <c r="U42">
+        <v>2121</v>
+      </c>
+      <c r="V42">
+        <v>2120</v>
+      </c>
+      <c r="W42">
+        <v>-140</v>
+      </c>
+      <c r="X42">
+        <v>-105</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-2379</v>
+      </c>
+      <c r="AA42">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>389</v>
+      </c>
+      <c r="D43">
+        <v>5154</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>1250</v>
+      </c>
+      <c r="G43">
+        <v>4018</v>
+      </c>
+      <c r="H43">
+        <v>101145</v>
+      </c>
+      <c r="I43">
+        <v>3735</v>
+      </c>
+      <c r="J43">
+        <v>2590</v>
+      </c>
+      <c r="K43">
+        <v>244</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-1</v>
+      </c>
+      <c r="N43">
+        <v>8225</v>
+      </c>
+      <c r="O43">
+        <v>90122</v>
+      </c>
+      <c r="P43">
+        <v>3324</v>
+      </c>
+      <c r="Q43">
+        <v>-33</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>11023</v>
+      </c>
+      <c r="U43">
+        <v>2088</v>
+      </c>
+      <c r="V43">
+        <v>2167</v>
+      </c>
+      <c r="W43">
+        <v>-135</v>
+      </c>
+      <c r="X43">
+        <v>-171</v>
+      </c>
+      <c r="Y43">
+        <v>6</v>
+      </c>
+      <c r="Z43">
+        <v>-2048</v>
+      </c>
+      <c r="AA43">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>274</v>
+      </c>
+      <c r="D44">
+        <v>5079</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>1091</v>
+      </c>
+      <c r="G44">
+        <v>3404</v>
+      </c>
+      <c r="H44">
+        <v>106232</v>
+      </c>
+      <c r="I44">
+        <v>3855</v>
+      </c>
+      <c r="J44">
+        <v>2279</v>
+      </c>
+      <c r="K44">
+        <v>338</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>9032</v>
+      </c>
+      <c r="O44">
+        <v>94251</v>
+      </c>
+      <c r="P44">
+        <v>3391</v>
+      </c>
+      <c r="Q44">
+        <v>-797</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>11981</v>
+      </c>
+      <c r="U44">
+        <v>1291</v>
+      </c>
+      <c r="V44">
+        <v>2211</v>
+      </c>
+      <c r="W44">
+        <v>-125</v>
+      </c>
+      <c r="X44">
+        <v>-4</v>
+      </c>
+      <c r="Y44">
+        <v>6</v>
+      </c>
+      <c r="Z44">
+        <v>-3104</v>
+      </c>
+      <c r="AA44">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>736</v>
+      </c>
+      <c r="D45">
+        <v>6137</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>1918</v>
+      </c>
+      <c r="G45">
+        <v>4063</v>
+      </c>
+      <c r="H45">
+        <v>114720</v>
+      </c>
+      <c r="I45">
+        <v>4033</v>
+      </c>
+      <c r="J45">
+        <v>2946</v>
+      </c>
+      <c r="K45">
+        <v>858</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>9612</v>
+      </c>
+      <c r="O45">
+        <v>102006</v>
+      </c>
+      <c r="P45">
+        <v>4199</v>
+      </c>
+      <c r="Q45">
+        <v>571</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>12714</v>
+      </c>
+      <c r="U45">
+        <v>1862</v>
+      </c>
+      <c r="V45">
+        <v>3108</v>
+      </c>
+      <c r="W45">
+        <v>-144</v>
+      </c>
+      <c r="X45">
+        <v>160</v>
+      </c>
+      <c r="Y45">
+        <v>8</v>
+      </c>
+      <c r="Z45">
+        <v>-3263</v>
+      </c>
+      <c r="AA45">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>538</v>
+      </c>
+      <c r="D46">
+        <v>5960</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>1564</v>
+      </c>
+      <c r="G46">
+        <v>4106</v>
+      </c>
+      <c r="H46">
+        <v>116237</v>
+      </c>
+      <c r="I46">
+        <v>3981</v>
+      </c>
+      <c r="J46">
+        <v>2933</v>
+      </c>
+      <c r="K46">
+        <v>838</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>9704</v>
+      </c>
+      <c r="O46">
+        <v>103291</v>
+      </c>
+      <c r="P46">
+        <v>4127</v>
+      </c>
+      <c r="Q46">
+        <v>387</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>12946</v>
+      </c>
+      <c r="U46">
+        <v>2249</v>
+      </c>
+      <c r="V46">
+        <v>3356</v>
+      </c>
+      <c r="W46">
+        <v>-148</v>
+      </c>
+      <c r="X46">
+        <v>79</v>
+      </c>
+      <c r="Y46">
+        <v>10</v>
+      </c>
+      <c r="Z46">
+        <v>-2999</v>
+      </c>
+      <c r="AA46">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>785</v>
+      </c>
+      <c r="D47">
+        <v>6193</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>1825</v>
+      </c>
+      <c r="G47">
+        <v>4018</v>
+      </c>
+      <c r="H47">
+        <v>115552</v>
+      </c>
+      <c r="I47">
+        <v>3885</v>
+      </c>
+      <c r="J47">
+        <v>3631</v>
+      </c>
+      <c r="K47">
+        <v>193</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-1</v>
+      </c>
+      <c r="N47">
+        <v>9283</v>
+      </c>
+      <c r="O47">
+        <v>101909</v>
+      </c>
+      <c r="P47">
+        <v>4160</v>
+      </c>
+      <c r="Q47">
+        <v>-39</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>13643</v>
+      </c>
+      <c r="U47">
+        <v>2210</v>
+      </c>
+      <c r="V47">
+        <v>3556</v>
+      </c>
+      <c r="W47">
+        <v>-148</v>
+      </c>
+      <c r="X47">
+        <v>901</v>
+      </c>
+      <c r="Y47">
+        <v>9</v>
+      </c>
+      <c r="Z47">
+        <v>-3761</v>
+      </c>
+      <c r="AA47">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>483</v>
+      </c>
+      <c r="D48">
+        <v>5960</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1496</v>
+      </c>
+      <c r="G48">
+        <v>3996</v>
+      </c>
+      <c r="H48">
+        <v>122209</v>
+      </c>
+      <c r="I48">
+        <v>4057</v>
+      </c>
+      <c r="J48">
+        <v>3663</v>
+      </c>
+      <c r="K48">
+        <v>192</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>9426</v>
+      </c>
+      <c r="O48">
+        <v>108030</v>
+      </c>
+      <c r="P48">
+        <v>3868</v>
+      </c>
+      <c r="Q48">
+        <v>-80</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>14179</v>
+      </c>
+      <c r="U48">
+        <v>2130</v>
+      </c>
+      <c r="V48">
+        <v>3689</v>
+      </c>
+      <c r="W48">
+        <v>-148</v>
+      </c>
+      <c r="X48">
+        <v>-176</v>
+      </c>
+      <c r="Y48">
+        <v>9</v>
+      </c>
+      <c r="Z48">
+        <v>-3671</v>
+      </c>
+      <c r="AA48">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>1017</v>
+      </c>
+      <c r="D49">
+        <v>6777</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>2122</v>
+      </c>
+      <c r="G49">
+        <v>5167</v>
+      </c>
+      <c r="H49">
+        <v>137840</v>
+      </c>
+      <c r="I49">
+        <v>4267</v>
+      </c>
+      <c r="J49">
+        <v>4391</v>
+      </c>
+      <c r="K49">
+        <v>6591</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>16883</v>
+      </c>
+      <c r="O49">
+        <v>121855</v>
+      </c>
+      <c r="P49">
+        <v>10997</v>
+      </c>
+      <c r="Q49">
+        <v>855</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>15985</v>
+      </c>
+      <c r="U49">
+        <v>2985</v>
+      </c>
+      <c r="V49">
+        <v>4206</v>
+      </c>
+      <c r="W49">
+        <v>-149</v>
+      </c>
+      <c r="X49">
+        <v>1056</v>
+      </c>
+      <c r="Y49">
+        <v>10</v>
+      </c>
+      <c r="Z49">
+        <v>-10674</v>
+      </c>
+      <c r="AA49">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>581</v>
+      </c>
+      <c r="D50">
+        <v>6334</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>1631</v>
+      </c>
+      <c r="G50">
+        <v>4204</v>
+      </c>
+      <c r="H50">
+        <v>131094</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>4343</v>
+      </c>
+      <c r="K50">
+        <v>6277</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>22973</v>
+      </c>
+      <c r="O50">
+        <v>115116</v>
+      </c>
+      <c r="P50">
+        <v>10632</v>
+      </c>
+      <c r="Q50">
+        <v>-944</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>8965</v>
+      </c>
+      <c r="T50">
+        <v>15978</v>
+      </c>
+      <c r="U50">
+        <v>2041</v>
+      </c>
+      <c r="V50">
+        <v>3501</v>
+      </c>
+      <c r="W50">
+        <v>-158</v>
+      </c>
+      <c r="X50">
+        <v>164</v>
+      </c>
+      <c r="Y50">
+        <v>9</v>
+      </c>
+      <c r="Z50">
+        <v>-4799</v>
+      </c>
+      <c r="AA50">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>892</v>
+      </c>
+      <c r="D51">
+        <v>6133</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>1937</v>
+      </c>
+      <c r="G51">
+        <v>5501</v>
+      </c>
+      <c r="H51">
+        <v>120538</v>
+      </c>
+      <c r="I51">
+        <v>3877</v>
+      </c>
+      <c r="J51">
+        <v>4276</v>
+      </c>
+      <c r="K51">
+        <v>207</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>20489</v>
+      </c>
+      <c r="O51">
+        <v>105003</v>
+      </c>
+      <c r="P51">
+        <v>4491</v>
+      </c>
+      <c r="Q51">
+        <v>555</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>15535</v>
+      </c>
+      <c r="U51">
+        <v>2596</v>
+      </c>
+      <c r="V51">
+        <v>3832</v>
+      </c>
+      <c r="W51">
+        <v>-159</v>
+      </c>
+      <c r="X51">
+        <v>-156</v>
+      </c>
+      <c r="Y51">
+        <v>7</v>
+      </c>
+      <c r="Z51">
+        <v>3845</v>
+      </c>
+      <c r="AA51">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>889</v>
+      </c>
+      <c r="D52">
+        <v>5942</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>1902</v>
+      </c>
+      <c r="G52">
+        <v>4717</v>
+      </c>
+      <c r="H52">
+        <v>116313</v>
+      </c>
+      <c r="I52">
+        <v>3760</v>
+      </c>
+      <c r="J52">
+        <v>4939</v>
+      </c>
+      <c r="K52">
+        <v>1506</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>20566</v>
+      </c>
+      <c r="O52">
+        <v>102617</v>
+      </c>
+      <c r="P52">
+        <v>6453</v>
+      </c>
+      <c r="Q52">
+        <v>-208</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>13696</v>
+      </c>
+      <c r="U52">
+        <v>2388</v>
+      </c>
+      <c r="V52">
+        <v>1866</v>
+      </c>
+      <c r="W52">
+        <v>-156</v>
+      </c>
+      <c r="X52">
+        <v>682</v>
+      </c>
+      <c r="Y52">
+        <v>7</v>
+      </c>
+      <c r="Z52">
+        <v>-3281</v>
+      </c>
+      <c r="AA52">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>702</v>
+      </c>
+      <c r="D53">
+        <v>5854</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>1725</v>
+      </c>
+      <c r="G53">
+        <v>5072</v>
+      </c>
+      <c r="H53">
+        <v>119918</v>
+      </c>
+      <c r="I53">
+        <v>3853</v>
+      </c>
+      <c r="J53">
+        <v>4596</v>
+      </c>
+      <c r="K53">
+        <v>628</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>20122</v>
+      </c>
+      <c r="O53">
+        <v>105260</v>
+      </c>
+      <c r="P53">
+        <v>5690</v>
+      </c>
+      <c r="Q53">
+        <v>361</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>14658</v>
+      </c>
+      <c r="U53">
+        <v>2749</v>
+      </c>
+      <c r="V53">
+        <v>1461</v>
+      </c>
+      <c r="W53">
+        <v>-157</v>
+      </c>
+      <c r="X53">
+        <v>607</v>
+      </c>
+      <c r="Y53">
+        <v>7</v>
+      </c>
+      <c r="Z53">
+        <v>-1503</v>
+      </c>
+      <c r="AA53">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>675</v>
+      </c>
+      <c r="D54">
+        <v>5690</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>1640</v>
+      </c>
+      <c r="G54">
+        <v>4994</v>
+      </c>
+      <c r="H54">
+        <v>121307</v>
+      </c>
+      <c r="I54">
+        <v>3763</v>
+      </c>
+      <c r="J54">
+        <v>4567</v>
+      </c>
+      <c r="K54">
+        <v>5820</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>25104</v>
+      </c>
+      <c r="O54">
+        <v>106687</v>
+      </c>
+      <c r="P54">
+        <v>10749</v>
+      </c>
+      <c r="Q54">
+        <v>-206</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>9141</v>
+      </c>
+      <c r="T54">
+        <v>14620</v>
+      </c>
+      <c r="U54">
+        <v>2543</v>
+      </c>
+      <c r="V54">
+        <v>3388</v>
+      </c>
+      <c r="W54">
+        <v>-163</v>
+      </c>
+      <c r="X54">
+        <v>3</v>
+      </c>
+      <c r="Y54">
+        <v>6</v>
+      </c>
+      <c r="Z54">
+        <v>-9530</v>
+      </c>
+      <c r="AA54">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>732</v>
+      </c>
+      <c r="D55">
+        <v>5667</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>1787</v>
+      </c>
+      <c r="G55">
+        <v>4023</v>
+      </c>
+      <c r="H55">
+        <v>123292</v>
+      </c>
+      <c r="I55">
+        <v>3875</v>
+      </c>
+      <c r="J55">
+        <v>4624</v>
+      </c>
+      <c r="K55">
+        <v>3313</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>22867</v>
+      </c>
+      <c r="O55">
+        <v>107616</v>
+      </c>
+      <c r="P55">
+        <v>8287</v>
+      </c>
+      <c r="Q55">
+        <v>-549</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>15676</v>
+      </c>
+      <c r="U55">
+        <v>1994</v>
+      </c>
+      <c r="V55">
+        <v>1615</v>
+      </c>
+      <c r="W55">
+        <v>-163</v>
+      </c>
+      <c r="X55">
+        <v>-32</v>
+      </c>
+      <c r="Y55">
+        <v>5</v>
+      </c>
+      <c r="Z55">
+        <v>895</v>
+      </c>
+      <c r="AA55">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>810</v>
+      </c>
+      <c r="D56">
+        <v>5816</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>1878</v>
+      </c>
+      <c r="G56">
+        <v>5203</v>
+      </c>
+      <c r="H56">
+        <v>127871</v>
+      </c>
+      <c r="I56">
+        <v>3941</v>
+      </c>
+      <c r="J56">
+        <v>4581</v>
+      </c>
+      <c r="K56">
+        <v>2972</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>23122</v>
+      </c>
+      <c r="O56">
+        <v>110313</v>
+      </c>
+      <c r="P56">
+        <v>7974</v>
+      </c>
+      <c r="Q56">
+        <v>258</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>17558</v>
+      </c>
+      <c r="U56">
+        <v>2252</v>
+      </c>
+      <c r="V56">
+        <v>1517</v>
+      </c>
+      <c r="W56">
+        <v>-161</v>
+      </c>
+      <c r="X56">
+        <v>233</v>
+      </c>
+      <c r="Y56">
+        <v>7</v>
+      </c>
+      <c r="Z56">
+        <v>-1069</v>
+      </c>
+      <c r="AA56">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>706</v>
+      </c>
+      <c r="D57">
+        <v>5701</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>1714</v>
+      </c>
+      <c r="G57">
+        <v>5455</v>
+      </c>
+      <c r="H57">
+        <v>127253</v>
+      </c>
+      <c r="I57">
+        <v>3829</v>
+      </c>
+      <c r="J57">
+        <v>4115</v>
+      </c>
+      <c r="K57">
+        <v>7025</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>26744</v>
+      </c>
+      <c r="O57">
+        <v>109400</v>
+      </c>
+      <c r="P57">
+        <v>11648</v>
+      </c>
+      <c r="Q57">
+        <v>414</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>17853</v>
+      </c>
+      <c r="U57">
+        <v>2666</v>
+      </c>
+      <c r="V57">
+        <v>1445</v>
+      </c>
+      <c r="W57">
+        <v>-162</v>
+      </c>
+      <c r="X57">
+        <v>-523</v>
+      </c>
+      <c r="Y57">
+        <v>6</v>
+      </c>
+      <c r="Z57">
+        <v>-5027</v>
+      </c>
+      <c r="AA57">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>703</v>
+      </c>
+      <c r="D58">
+        <v>5425</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>1749</v>
+      </c>
+      <c r="G58">
+        <v>7064</v>
+      </c>
+      <c r="H58">
+        <v>119767</v>
+      </c>
+      <c r="I58">
+        <v>3630</v>
+      </c>
+      <c r="J58">
+        <v>4844</v>
+      </c>
+      <c r="K58">
+        <v>2193</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>22589</v>
+      </c>
+      <c r="O58">
+        <v>101420</v>
+      </c>
+      <c r="P58">
+        <v>7635</v>
+      </c>
+      <c r="Q58">
+        <v>1992</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>9525</v>
+      </c>
+      <c r="T58">
+        <v>18347</v>
+      </c>
+      <c r="U58">
+        <v>4658</v>
+      </c>
+      <c r="V58">
+        <v>1973</v>
+      </c>
+      <c r="W58">
+        <v>-168</v>
+      </c>
+      <c r="X58">
+        <v>175</v>
+      </c>
+      <c r="Y58">
+        <v>14</v>
+      </c>
+      <c r="Z58">
+        <v>4783</v>
+      </c>
+      <c r="AA58">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>663</v>
+      </c>
+      <c r="D59">
+        <v>5279</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1720</v>
+      </c>
+      <c r="G59">
+        <v>7804</v>
+      </c>
+      <c r="H59">
+        <v>121401</v>
+      </c>
+      <c r="I59">
+        <v>3673</v>
+      </c>
+      <c r="J59">
+        <v>5843</v>
+      </c>
+      <c r="K59">
+        <v>2615</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>21094</v>
+      </c>
+      <c r="O59">
+        <v>102764</v>
+      </c>
+      <c r="P59">
+        <v>8923</v>
+      </c>
+      <c r="Q59">
+        <v>-295</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>18637</v>
+      </c>
+      <c r="U59">
+        <v>4363</v>
+      </c>
+      <c r="V59">
+        <v>1460</v>
+      </c>
+      <c r="W59">
+        <v>-165</v>
+      </c>
+      <c r="X59">
+        <v>322</v>
+      </c>
+      <c r="Y59">
+        <v>14</v>
+      </c>
+      <c r="Z59">
+        <v>-658</v>
+      </c>
+      <c r="AA59">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>573</v>
+      </c>
+      <c r="D60">
+        <v>5253</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>1736</v>
+      </c>
+      <c r="G60">
+        <v>6233</v>
+      </c>
+      <c r="H60">
+        <v>115581</v>
+      </c>
+      <c r="I60">
+        <v>3695</v>
+      </c>
+      <c r="J60">
+        <v>4989</v>
+      </c>
+      <c r="K60">
+        <v>1023</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>18442</v>
+      </c>
+      <c r="O60">
+        <v>98563</v>
+      </c>
+      <c r="P60">
+        <v>6448</v>
+      </c>
+      <c r="Q60">
+        <v>-1260</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>17018</v>
+      </c>
+      <c r="U60">
+        <v>3103</v>
+      </c>
+      <c r="V60">
+        <v>1643</v>
+      </c>
+      <c r="W60">
+        <v>-163</v>
+      </c>
+      <c r="X60">
+        <v>-1409</v>
+      </c>
+      <c r="Y60">
+        <v>13</v>
+      </c>
+      <c r="Z60">
+        <v>320</v>
+      </c>
+      <c r="AA60">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>567</v>
+      </c>
+      <c r="D61">
+        <v>5042</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>1531</v>
+      </c>
+      <c r="G61">
+        <v>6695</v>
+      </c>
+      <c r="H61">
+        <v>117455</v>
+      </c>
+      <c r="I61">
+        <v>3809</v>
+      </c>
+      <c r="J61">
+        <v>4794</v>
+      </c>
+      <c r="K61">
+        <v>907</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>17894</v>
+      </c>
+      <c r="O61">
+        <v>100200</v>
+      </c>
+      <c r="P61">
+        <v>5916</v>
+      </c>
+      <c r="Q61">
+        <v>417</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>17255</v>
+      </c>
+      <c r="U61">
+        <v>3520</v>
+      </c>
+      <c r="V61">
+        <v>1667</v>
+      </c>
+      <c r="W61">
+        <v>-161</v>
+      </c>
+      <c r="X61">
+        <v>-739</v>
+      </c>
+      <c r="Y61">
+        <v>16</v>
+      </c>
+      <c r="Z61">
+        <v>-68</v>
+      </c>
+      <c r="AA61">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>730</v>
+      </c>
+      <c r="D62">
+        <v>5312</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>1784</v>
+      </c>
+      <c r="G62">
+        <v>7304</v>
+      </c>
+      <c r="H62">
+        <v>118256</v>
+      </c>
+      <c r="I62">
+        <v>3802</v>
+      </c>
+      <c r="J62">
+        <v>4754</v>
+      </c>
+      <c r="K62">
+        <v>941</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>17508</v>
+      </c>
+      <c r="O62">
+        <v>100548</v>
+      </c>
+      <c r="P62">
+        <v>5912</v>
+      </c>
+      <c r="Q62">
+        <v>830</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>9915</v>
+      </c>
+      <c r="T62">
+        <v>17708</v>
+      </c>
+      <c r="U62">
+        <v>4350</v>
+      </c>
+      <c r="V62">
+        <v>2006</v>
+      </c>
+      <c r="W62">
+        <v>-167</v>
+      </c>
+      <c r="X62">
+        <v>-361</v>
+      </c>
+      <c r="Y62">
+        <v>20</v>
+      </c>
+      <c r="Z62">
+        <v>-855</v>
+      </c>
+      <c r="AA62">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>731</v>
+      </c>
+      <c r="D63">
+        <v>5494</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1844</v>
+      </c>
+      <c r="G63">
+        <v>6935</v>
+      </c>
+      <c r="H63">
+        <v>127766</v>
+      </c>
+      <c r="I63">
+        <v>3990</v>
+      </c>
+      <c r="J63">
+        <v>4104</v>
+      </c>
+      <c r="K63">
+        <v>830</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>19405</v>
+      </c>
+      <c r="O63">
+        <v>107745</v>
+      </c>
+      <c r="P63">
+        <v>5814</v>
+      </c>
+      <c r="Q63">
+        <v>-901</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>20021</v>
+      </c>
+      <c r="U63">
+        <v>3449</v>
+      </c>
+      <c r="V63">
+        <v>1331</v>
+      </c>
+      <c r="W63">
+        <v>-167</v>
+      </c>
+      <c r="X63">
+        <v>-766</v>
+      </c>
+      <c r="Y63">
+        <v>19</v>
+      </c>
+      <c r="Z63">
+        <v>-1412</v>
+      </c>
+      <c r="AA63">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>548</v>
+      </c>
+      <c r="D64">
+        <v>5482</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1599</v>
+      </c>
+      <c r="G64">
+        <v>8186</v>
+      </c>
+      <c r="H64">
+        <v>141287</v>
+      </c>
+      <c r="I64">
+        <v>4261</v>
+      </c>
+      <c r="J64">
+        <v>4105</v>
+      </c>
+      <c r="K64">
+        <v>826</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>21951</v>
+      </c>
+      <c r="O64">
+        <v>118737</v>
+      </c>
+      <c r="P64">
+        <v>5835</v>
+      </c>
+      <c r="Q64">
+        <v>251</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>22550</v>
+      </c>
+      <c r="U64">
+        <v>3700</v>
+      </c>
+      <c r="V64">
+        <v>1523</v>
+      </c>
+      <c r="W64">
+        <v>-163</v>
+      </c>
+      <c r="X64">
+        <v>-515</v>
+      </c>
+      <c r="Y64">
+        <v>22</v>
+      </c>
+      <c r="Z64">
+        <v>-1123</v>
+      </c>
+      <c r="AA64">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>629</v>
+      </c>
+      <c r="D65">
+        <v>5736</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1723</v>
+      </c>
+      <c r="G65">
+        <v>9381</v>
+      </c>
+      <c r="H65">
+        <v>144101</v>
+      </c>
+      <c r="I65">
+        <v>4346</v>
+      </c>
+      <c r="J65">
+        <v>5093</v>
+      </c>
+      <c r="K65">
+        <v>1053</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>21298</v>
+      </c>
+      <c r="O65">
+        <v>121316</v>
+      </c>
+      <c r="P65">
+        <v>6818</v>
+      </c>
+      <c r="Q65">
+        <v>1570</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>22785</v>
+      </c>
+      <c r="U65">
+        <v>5270</v>
+      </c>
+      <c r="V65">
+        <v>1266</v>
+      </c>
+      <c r="W65">
+        <v>-162</v>
+      </c>
+      <c r="X65">
+        <v>446</v>
+      </c>
+      <c r="Y65">
+        <v>22</v>
+      </c>
+      <c r="Z65">
+        <v>-900</v>
+      </c>
+      <c r="AA65">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>751</v>
+      </c>
+      <c r="D66">
+        <v>5918</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>2036</v>
+      </c>
+      <c r="G66">
+        <v>8438</v>
+      </c>
+      <c r="H66">
+        <v>129819</v>
+      </c>
+      <c r="I66">
+        <v>4045</v>
+      </c>
+      <c r="J66">
+        <v>4690</v>
+      </c>
+      <c r="K66">
+        <v>526</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>19521</v>
+      </c>
+      <c r="O66">
+        <v>109337</v>
+      </c>
+      <c r="P66">
+        <v>5886</v>
+      </c>
+      <c r="Q66">
+        <v>-411</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>10212</v>
+      </c>
+      <c r="T66">
+        <v>20482</v>
+      </c>
+      <c r="U66">
+        <v>4859</v>
+      </c>
+      <c r="V66">
+        <v>1867</v>
+      </c>
+      <c r="W66">
+        <v>-166</v>
+      </c>
+      <c r="X66">
+        <v>-784</v>
+      </c>
+      <c r="Y66">
+        <v>21</v>
+      </c>
+      <c r="Z66">
+        <v>-1180</v>
+      </c>
+      <c r="AA66">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>592</v>
+      </c>
+      <c r="D67">
+        <v>5309</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1635</v>
+      </c>
+      <c r="G67">
+        <v>7167</v>
+      </c>
+      <c r="H67">
+        <v>133650</v>
+      </c>
+      <c r="I67">
+        <v>4230</v>
+      </c>
+      <c r="J67">
+        <v>5230</v>
+      </c>
+      <c r="K67">
+        <v>1482</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-654</v>
+      </c>
+      <c r="N67">
+        <v>19262</v>
+      </c>
+      <c r="O67">
+        <v>113310</v>
+      </c>
+      <c r="P67">
+        <v>6732</v>
+      </c>
+      <c r="Q67">
+        <v>-654</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>20340</v>
+      </c>
+      <c r="U67">
+        <v>4205</v>
+      </c>
+      <c r="V67">
+        <v>1757</v>
+      </c>
+      <c r="W67">
+        <v>-166</v>
+      </c>
+      <c r="X67">
+        <v>-876</v>
+      </c>
+      <c r="Y67">
+        <v>20</v>
+      </c>
+      <c r="Z67">
+        <v>-2025</v>
+      </c>
+      <c r="AA67">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>713</v>
+      </c>
+      <c r="D68">
+        <v>5428</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1771</v>
+      </c>
+      <c r="G68">
+        <v>7482</v>
+      </c>
+      <c r="H68">
+        <v>135394</v>
+      </c>
+      <c r="I68">
+        <v>4281</v>
+      </c>
+      <c r="J68">
+        <v>5234</v>
+      </c>
+      <c r="K68">
+        <v>663</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>18669</v>
+      </c>
+      <c r="O68">
+        <v>113891</v>
+      </c>
+      <c r="P68">
+        <v>5915</v>
+      </c>
+      <c r="Q68">
+        <v>59</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>21503</v>
+      </c>
+      <c r="U68">
+        <v>4264</v>
+      </c>
+      <c r="V68">
+        <v>1408</v>
+      </c>
+      <c r="W68">
+        <v>-162</v>
+      </c>
+      <c r="X68">
+        <v>-355</v>
+      </c>
+      <c r="Y68">
+        <v>18</v>
+      </c>
+      <c r="Z68">
+        <v>115</v>
+      </c>
+      <c r="AA68">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>716</v>
+      </c>
+      <c r="D69">
+        <v>5506</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1820</v>
+      </c>
+      <c r="G69">
+        <v>8036</v>
+      </c>
+      <c r="H69">
+        <v>136083</v>
+      </c>
+      <c r="I69">
+        <v>4368</v>
+      </c>
+      <c r="J69">
+        <v>5230</v>
+      </c>
+      <c r="K69">
+        <v>522</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>18321</v>
+      </c>
+      <c r="O69">
+        <v>114106</v>
+      </c>
+      <c r="P69">
+        <v>5770</v>
+      </c>
+      <c r="Q69">
+        <v>663</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>21977</v>
+      </c>
+      <c r="U69">
+        <v>4927</v>
+      </c>
+      <c r="V69">
+        <v>1431</v>
+      </c>
+      <c r="W69">
+        <v>-163</v>
+      </c>
+      <c r="X69">
+        <v>-382</v>
+      </c>
+      <c r="Y69">
+        <v>18</v>
+      </c>
+      <c r="Z69">
+        <v>376</v>
+      </c>
+      <c r="AA69">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>2583</v>
+      </c>
+      <c r="D70">
+        <v>5424</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1813</v>
+      </c>
+      <c r="G70">
+        <v>6383</v>
+      </c>
+      <c r="H70">
+        <v>137217</v>
+      </c>
+      <c r="I70">
+        <v>4392</v>
+      </c>
+      <c r="J70">
+        <v>5289</v>
+      </c>
+      <c r="K70">
+        <v>606</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>16176</v>
+      </c>
+      <c r="O70">
+        <v>112619</v>
+      </c>
+      <c r="P70">
+        <v>5895</v>
+      </c>
+      <c r="Q70">
+        <v>-1436</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>11318</v>
+      </c>
+      <c r="T70">
+        <v>24598</v>
+      </c>
+      <c r="U70">
+        <v>3491</v>
+      </c>
+      <c r="V70">
+        <v>1532</v>
+      </c>
+      <c r="W70">
+        <v>-170</v>
+      </c>
+      <c r="X70">
+        <v>-452</v>
+      </c>
+      <c r="Y70">
+        <v>0</v>
+      </c>
+      <c r="Z70">
+        <v>-1191</v>
+      </c>
+      <c r="AA70">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>717</v>
+      </c>
+      <c r="D71">
+        <v>5464</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1771</v>
+      </c>
+      <c r="G71">
+        <v>7497</v>
+      </c>
+      <c r="H71">
+        <v>147356</v>
+      </c>
+      <c r="I71">
+        <v>4630</v>
+      </c>
+      <c r="J71">
+        <v>5352</v>
+      </c>
+      <c r="K71">
+        <v>5368</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>20842</v>
+      </c>
+      <c r="O71">
+        <v>123069</v>
+      </c>
+      <c r="P71">
+        <v>10740</v>
+      </c>
+      <c r="Q71">
+        <v>589</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>24287</v>
+      </c>
+      <c r="U71">
+        <v>4080</v>
+      </c>
+      <c r="V71">
+        <v>1238</v>
+      </c>
+      <c r="W71">
+        <v>-195</v>
+      </c>
+      <c r="X71">
+        <v>-473</v>
+      </c>
+      <c r="Y71">
+        <v>20</v>
+      </c>
+      <c r="Z71">
+        <v>-3116</v>
+      </c>
+      <c r="AA71">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>833</v>
+      </c>
+      <c r="D72">
+        <v>5589</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1917</v>
+      </c>
+      <c r="G72">
+        <v>6901</v>
+      </c>
+      <c r="H72">
+        <v>141986</v>
+      </c>
+      <c r="I72">
+        <v>4524</v>
+      </c>
+      <c r="J72">
+        <v>5299</v>
+      </c>
+      <c r="K72">
+        <v>3712</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>18272</v>
+      </c>
+      <c r="O72">
+        <v>118186</v>
+      </c>
+      <c r="P72">
+        <v>9027</v>
+      </c>
+      <c r="Q72">
+        <v>-233</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>23800</v>
+      </c>
+      <c r="U72">
+        <v>3847</v>
+      </c>
+      <c r="V72">
+        <v>1569</v>
+      </c>
+      <c r="W72">
+        <v>-201</v>
+      </c>
+      <c r="X72">
+        <v>-515</v>
+      </c>
+      <c r="Y72">
+        <v>16</v>
+      </c>
+      <c r="Z72">
+        <v>873</v>
+      </c>
+      <c r="AA72">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>845</v>
+      </c>
+      <c r="D73">
+        <v>5577</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1929</v>
+      </c>
+      <c r="G73">
+        <v>6297</v>
+      </c>
+      <c r="H73">
+        <v>137941</v>
+      </c>
+      <c r="I73">
+        <v>4530</v>
+      </c>
+      <c r="J73">
+        <v>5264</v>
+      </c>
+      <c r="K73">
+        <v>1970</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>16108</v>
+      </c>
+      <c r="O73">
+        <v>114707</v>
+      </c>
+      <c r="P73">
+        <v>7250</v>
+      </c>
+      <c r="Q73">
+        <v>-418</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>23234</v>
+      </c>
+      <c r="U73">
+        <v>3429</v>
+      </c>
+      <c r="V73">
+        <v>1852</v>
+      </c>
+      <c r="W73">
+        <v>-199</v>
+      </c>
+      <c r="X73">
+        <v>-525</v>
+      </c>
+      <c r="Y73">
+        <v>15</v>
+      </c>
+      <c r="Z73">
+        <v>1164</v>
+      </c>
+      <c r="AA73">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>525</v>
+      </c>
+      <c r="D74">
+        <v>5126</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1575</v>
+      </c>
+      <c r="G74">
+        <v>7471</v>
+      </c>
+      <c r="H74">
+        <v>140406</v>
+      </c>
+      <c r="I74">
+        <v>4584</v>
+      </c>
+      <c r="J74">
+        <v>5765</v>
+      </c>
+      <c r="K74">
+        <v>1052</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>15133</v>
+      </c>
+      <c r="O74">
+        <v>116944</v>
+      </c>
+      <c r="P74">
+        <v>6831</v>
+      </c>
+      <c r="Q74">
+        <v>908</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>11390</v>
+      </c>
+      <c r="T74">
+        <v>23462</v>
+      </c>
+      <c r="U74">
+        <v>4337</v>
+      </c>
+      <c r="V74">
+        <v>1355</v>
+      </c>
+      <c r="W74">
+        <v>-198</v>
+      </c>
+      <c r="X74">
+        <v>-103</v>
+      </c>
+      <c r="Y74">
+        <v>13</v>
+      </c>
+      <c r="Z74">
+        <v>1126</v>
+      </c>
+      <c r="AA74">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>928</v>
+      </c>
+      <c r="D75">
+        <v>5657</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>2019</v>
+      </c>
+      <c r="G75">
+        <v>7366</v>
+      </c>
+      <c r="H75">
+        <v>145679</v>
+      </c>
+      <c r="I75">
+        <v>4625</v>
+      </c>
+      <c r="J75">
+        <v>5766</v>
+      </c>
+      <c r="K75">
+        <v>1969</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>17000</v>
+      </c>
+      <c r="O75">
+        <v>119630</v>
+      </c>
+      <c r="P75">
+        <v>7870</v>
+      </c>
+      <c r="Q75">
+        <v>-445</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>26049</v>
+      </c>
+      <c r="U75">
+        <v>3892</v>
+      </c>
+      <c r="V75">
+        <v>1544</v>
+      </c>
+      <c r="W75">
+        <v>-195</v>
+      </c>
+      <c r="X75">
+        <v>-686</v>
+      </c>
+      <c r="Y75">
+        <v>134</v>
+      </c>
+      <c r="Z75">
+        <v>-2073</v>
+      </c>
+      <c r="AA75">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>817</v>
+      </c>
+      <c r="D76">
+        <v>5511</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1909</v>
+      </c>
+      <c r="G76">
+        <v>6877</v>
+      </c>
+      <c r="H76">
+        <v>151400</v>
+      </c>
+      <c r="I76">
+        <v>4706</v>
+      </c>
+      <c r="J76">
+        <v>6098</v>
+      </c>
+      <c r="K76">
+        <v>1557</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>16619</v>
+      </c>
+      <c r="O76">
+        <v>123159</v>
+      </c>
+      <c r="P76">
+        <v>7791</v>
+      </c>
+      <c r="Q76">
+        <v>-873</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>28241</v>
+      </c>
+      <c r="U76">
+        <v>3019</v>
+      </c>
+      <c r="V76">
+        <v>813</v>
+      </c>
+      <c r="W76">
+        <v>-194</v>
+      </c>
+      <c r="X76">
+        <v>-292</v>
+      </c>
+      <c r="Y76">
+        <v>130</v>
+      </c>
+      <c r="Z76">
+        <v>-614</v>
+      </c>
+      <c r="AA76">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>778</v>
+      </c>
+      <c r="D77">
+        <v>5536</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1862</v>
+      </c>
+      <c r="G77">
+        <v>7981</v>
+      </c>
+      <c r="H77">
+        <v>154137</v>
+      </c>
+      <c r="I77">
+        <v>4741</v>
+      </c>
+      <c r="J77">
+        <v>6095</v>
+      </c>
+      <c r="K77">
+        <v>2189</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>17618</v>
+      </c>
+      <c r="O77">
+        <v>124699</v>
+      </c>
+      <c r="P77">
+        <v>8422</v>
+      </c>
+      <c r="Q77">
+        <v>1197</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>29438</v>
+      </c>
+      <c r="U77">
+        <v>4216</v>
+      </c>
+      <c r="V77">
+        <v>1906</v>
+      </c>
+      <c r="W77">
+        <v>-190</v>
+      </c>
+      <c r="X77">
+        <v>-451</v>
+      </c>
+      <c r="Y77">
+        <v>134</v>
+      </c>
+      <c r="Z77">
+        <v>-90</v>
+      </c>
+      <c r="AA77">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>781</v>
+      </c>
+      <c r="D78">
+        <v>5603</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1973</v>
+      </c>
+      <c r="G78">
+        <v>8576</v>
+      </c>
+      <c r="H78">
+        <v>152768</v>
+      </c>
+      <c r="I78">
+        <v>4659</v>
+      </c>
+      <c r="J78">
+        <v>6060</v>
+      </c>
+      <c r="K78">
+        <v>1876</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>17082</v>
+      </c>
+      <c r="O78">
+        <v>123809</v>
+      </c>
+      <c r="P78">
+        <v>8445</v>
+      </c>
+      <c r="Q78">
+        <v>680</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>11729</v>
+      </c>
+      <c r="T78">
+        <v>28959</v>
+      </c>
+      <c r="U78">
+        <v>4896</v>
+      </c>
+      <c r="V78">
+        <v>1192</v>
+      </c>
+      <c r="W78">
+        <v>-192</v>
+      </c>
+      <c r="X78">
+        <v>-284</v>
+      </c>
+      <c r="Y78">
+        <v>161</v>
+      </c>
+      <c r="Z78">
+        <v>1399</v>
+      </c>
+      <c r="AA78">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>566</v>
+      </c>
+      <c r="D79">
+        <v>5162</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1554</v>
+      </c>
+      <c r="G79">
+        <v>8035</v>
+      </c>
+      <c r="H79">
+        <v>151616</v>
+      </c>
+      <c r="I79">
+        <v>4693</v>
+      </c>
+      <c r="J79">
+        <v>6597</v>
+      </c>
+      <c r="K79">
+        <v>2969</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-350</v>
+      </c>
+      <c r="N79">
+        <v>17039</v>
+      </c>
+      <c r="O79">
+        <v>125214</v>
+      </c>
+      <c r="P79">
+        <v>9727</v>
+      </c>
+      <c r="Q79">
+        <v>-748</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>26402</v>
+      </c>
+      <c r="U79">
+        <v>4148</v>
+      </c>
+      <c r="V79">
+        <v>1414</v>
+      </c>
+      <c r="W79">
+        <v>-195</v>
+      </c>
+      <c r="X79">
+        <v>-446</v>
+      </c>
+      <c r="Y79">
+        <v>161</v>
+      </c>
+      <c r="Z79">
+        <v>-1455</v>
+      </c>
+      <c r="AA79">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>804</v>
+      </c>
+      <c r="D80">
+        <v>5407</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1889</v>
+      </c>
+      <c r="G80">
+        <v>9432</v>
+      </c>
+      <c r="H80">
+        <v>157087</v>
+      </c>
+      <c r="I80">
+        <v>4773</v>
+      </c>
+      <c r="J80">
+        <v>7618</v>
+      </c>
+      <c r="K80">
+        <v>2275</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>16810</v>
+      </c>
+      <c r="O80">
+        <v>127667</v>
+      </c>
+      <c r="P80">
+        <v>10046</v>
+      </c>
+      <c r="Q80">
+        <v>1380</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>29420</v>
+      </c>
+      <c r="U80">
+        <v>5528</v>
+      </c>
+      <c r="V80">
+        <v>1187</v>
+      </c>
+      <c r="W80">
+        <v>-193</v>
+      </c>
+      <c r="X80">
+        <v>598</v>
+      </c>
+      <c r="Y80">
+        <v>153</v>
+      </c>
+      <c r="Z80">
+        <v>397</v>
+      </c>
+      <c r="AA80">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>2456</v>
+      </c>
+      <c r="D81">
+        <v>5665</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>2063</v>
+      </c>
+      <c r="G81">
+        <v>9386</v>
+      </c>
+      <c r="H81">
+        <v>160955</v>
+      </c>
+      <c r="I81">
+        <v>4976</v>
+      </c>
+      <c r="J81">
+        <v>7675</v>
+      </c>
+      <c r="K81">
+        <v>1495</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>15103</v>
+      </c>
+      <c r="O81">
+        <v>128476</v>
+      </c>
+      <c r="P81">
+        <v>9320</v>
+      </c>
+      <c r="Q81">
+        <v>35</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>32479</v>
+      </c>
+      <c r="U81">
+        <v>5563</v>
+      </c>
+      <c r="V81">
+        <v>2000</v>
+      </c>
+      <c r="W81">
+        <v>-192</v>
+      </c>
+      <c r="X81">
+        <v>-583</v>
+      </c>
+      <c r="Y81">
+        <v>150</v>
+      </c>
+      <c r="Z81">
+        <v>-424</v>
+      </c>
+      <c r="AA81">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>952</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>5913</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>2316</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>9439</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>165086</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>3343</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>7745</v>
       </c>
-      <c r="K42">
+      <c r="K82">
         <v>964</v>
       </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>13318</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>131527</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>8863</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-422</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>12003</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>33559</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>5141</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>1357</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-189</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-684</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>98</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-685</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>952</v>
       </c>
     </row>
